--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_25_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_25_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3670441.914413852</v>
+        <v>3670722.723035055</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12774688.62027909</v>
+        <v>12774688.62027908</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61228.19820506774</v>
+        <v>61228.19820506618</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7470549.079127397</v>
+        <v>7470549.079127398</v>
       </c>
     </row>
     <row r="11">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -986,10 +986,10 @@
         <v>6.056421089299432</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1217,56 +1217,56 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="F9" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>350.0906590558129</v>
+        <v>350.0906590558128</v>
       </c>
       <c r="C11" t="n">
         <v>332.6297091633398</v>
@@ -1378,7 +1378,7 @@
         <v>322.0398590130152</v>
       </c>
       <c r="E11" t="n">
-        <v>349.2871874645941</v>
+        <v>349.287187464594</v>
       </c>
       <c r="F11" t="n">
         <v>374.2328631340437</v>
@@ -1387,7 +1387,7 @@
         <v>377.5721381335312</v>
       </c>
       <c r="H11" t="n">
-        <v>254.730112472026</v>
+        <v>254.7301124720259</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>60.44737724250783</v>
+        <v>12.71870049591113</v>
       </c>
       <c r="T11" t="n">
         <v>168.1825000285582</v>
@@ -1429,16 +1429,16 @@
         <v>218.2954769582539</v>
       </c>
       <c r="V11" t="n">
-        <v>247.3803991158694</v>
+        <v>295.1090758624671</v>
       </c>
       <c r="W11" t="n">
-        <v>316.5977861097453</v>
+        <v>316.5977861097452</v>
       </c>
       <c r="X11" t="n">
         <v>337.0879180708013</v>
       </c>
       <c r="Y11" t="n">
-        <v>353.5947560483859</v>
+        <v>353.5947560483858</v>
       </c>
     </row>
     <row r="12">
@@ -1536,19 +1536,19 @@
         <v>115.9722904105446</v>
       </c>
       <c r="E13" t="n">
-        <v>113.7907800389015</v>
+        <v>113.7907800389014</v>
       </c>
       <c r="F13" t="n">
         <v>112.7778654152635</v>
       </c>
       <c r="G13" t="n">
-        <v>133.0657567265808</v>
+        <v>133.0657567265807</v>
       </c>
       <c r="H13" t="n">
         <v>109.2945795027022</v>
       </c>
       <c r="I13" t="n">
-        <v>54.18012504606661</v>
+        <v>54.18012504606657</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.04139095364646</v>
+        <v>42.04139095364642</v>
       </c>
       <c r="S13" t="n">
         <v>151.6036815528398</v>
       </c>
       <c r="T13" t="n">
-        <v>185.5518721717153</v>
+        <v>185.5518721717152</v>
       </c>
       <c r="U13" t="n">
-        <v>253.5513718384117</v>
+        <v>253.5513718384119</v>
       </c>
       <c r="V13" t="n">
         <v>219.4944607161603</v>
@@ -1609,19 +1609,19 @@
         <v>350.0906590558129</v>
       </c>
       <c r="C14" t="n">
-        <v>332.6297091633398</v>
+        <v>332.6297091633399</v>
       </c>
       <c r="D14" t="n">
-        <v>322.0398590130152</v>
+        <v>322.0398590130153</v>
       </c>
       <c r="E14" t="n">
         <v>349.2871874645941</v>
       </c>
       <c r="F14" t="n">
-        <v>374.2328631340437</v>
+        <v>326.504186387445</v>
       </c>
       <c r="G14" t="n">
-        <v>377.5721381335312</v>
+        <v>377.5721381335313</v>
       </c>
       <c r="H14" t="n">
         <v>254.730112472026</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>60.44737724250783</v>
+        <v>60.44737724250786</v>
       </c>
       <c r="T14" t="n">
-        <v>120.4538232819603</v>
+        <v>168.1825000285582</v>
       </c>
       <c r="U14" t="n">
         <v>218.2954769582539</v>
       </c>
       <c r="V14" t="n">
-        <v>295.1090758624672</v>
+        <v>295.1090758624673</v>
       </c>
       <c r="W14" t="n">
-        <v>316.5977861097453</v>
+        <v>316.5977861097454</v>
       </c>
       <c r="X14" t="n">
-        <v>337.0879180708013</v>
+        <v>337.0879180708014</v>
       </c>
       <c r="Y14" t="n">
         <v>353.5947560483859</v>
@@ -1767,16 +1767,16 @@
         <v>147.1887975742696</v>
       </c>
       <c r="C16" t="n">
-        <v>134.6036384909601</v>
+        <v>134.6036384909602</v>
       </c>
       <c r="D16" t="n">
-        <v>115.9722904105446</v>
+        <v>115.9722904105447</v>
       </c>
       <c r="E16" t="n">
         <v>113.7907800389015</v>
       </c>
       <c r="F16" t="n">
-        <v>112.7778654152635</v>
+        <v>112.7778654152636</v>
       </c>
       <c r="G16" t="n">
         <v>133.0657567265808</v>
@@ -1785,7 +1785,7 @@
         <v>109.2945795027022</v>
       </c>
       <c r="I16" t="n">
-        <v>54.1801250460664</v>
+        <v>54.18012504606654</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.04139095364646</v>
+        <v>42.04139095364649</v>
       </c>
       <c r="S16" t="n">
-        <v>151.6036815528398</v>
+        <v>151.6036815528394</v>
       </c>
       <c r="T16" t="n">
         <v>185.5518721717153</v>
@@ -1830,7 +1830,7 @@
         <v>253.8798157289233</v>
       </c>
       <c r="X16" t="n">
-        <v>193.0664727813694</v>
+        <v>193.0664727813695</v>
       </c>
       <c r="Y16" t="n">
         <v>185.9414707444271</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>346.6814678596273</v>
+        <v>346.6814678596271</v>
       </c>
       <c r="C17" t="n">
-        <v>329.2205179671543</v>
+        <v>329.2205179671541</v>
       </c>
       <c r="D17" t="n">
-        <v>318.6306678168297</v>
+        <v>318.6306678168295</v>
       </c>
       <c r="E17" t="n">
-        <v>345.8779962684085</v>
+        <v>345.8779962684083</v>
       </c>
       <c r="F17" t="n">
-        <v>370.8236719378582</v>
+        <v>370.823671937858</v>
       </c>
       <c r="G17" t="n">
-        <v>374.1629469373457</v>
+        <v>374.1629469373485</v>
       </c>
       <c r="H17" t="n">
-        <v>251.3209212758404</v>
+        <v>251.3209212758402</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.03818604632181</v>
+        <v>57.0381860463221</v>
       </c>
       <c r="T17" t="n">
-        <v>164.7733088323727</v>
+        <v>164.7733088323724</v>
       </c>
       <c r="U17" t="n">
-        <v>214.8862857620683</v>
+        <v>214.8862857620681</v>
       </c>
       <c r="V17" t="n">
-        <v>291.6998846662817</v>
+        <v>291.6998846662814</v>
       </c>
       <c r="W17" t="n">
-        <v>313.1885949135598</v>
+        <v>313.1885949135595</v>
       </c>
       <c r="X17" t="n">
-        <v>333.6787268746158</v>
+        <v>333.6787268746156</v>
       </c>
       <c r="Y17" t="n">
-        <v>350.1855648522003</v>
+        <v>350.1855648522001</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>85.94657801591546</v>
       </c>
       <c r="I18" t="n">
-        <v>5.804123945703509</v>
+        <v>5.804123945703523</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>143.7796063780841</v>
+        <v>143.7796063780838</v>
       </c>
       <c r="C19" t="n">
-        <v>131.1944472947746</v>
+        <v>131.1944472947744</v>
       </c>
       <c r="D19" t="n">
-        <v>112.5630992143591</v>
+        <v>112.5630992143589</v>
       </c>
       <c r="E19" t="n">
-        <v>110.3815888427159</v>
+        <v>110.3815888427157</v>
       </c>
       <c r="F19" t="n">
-        <v>109.368674219078</v>
+        <v>109.3686742190778</v>
       </c>
       <c r="G19" t="n">
-        <v>129.6565655303952</v>
+        <v>129.656565530395</v>
       </c>
       <c r="H19" t="n">
-        <v>105.8853883065167</v>
+        <v>105.8853883065164</v>
       </c>
       <c r="I19" t="n">
-        <v>50.77093384988106</v>
+        <v>50.77093384988086</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>38.63219975746091</v>
+        <v>38.6321997574607</v>
       </c>
       <c r="S19" t="n">
-        <v>148.1944903566543</v>
+        <v>148.1944903566541</v>
       </c>
       <c r="T19" t="n">
-        <v>182.1426809755297</v>
+        <v>182.1426809755295</v>
       </c>
       <c r="U19" t="n">
-        <v>250.1421806422262</v>
+        <v>250.142180642226</v>
       </c>
       <c r="V19" t="n">
-        <v>216.0852695199748</v>
+        <v>216.0852695199745</v>
       </c>
       <c r="W19" t="n">
-        <v>250.4706245327378</v>
+        <v>250.4706245327375</v>
       </c>
       <c r="X19" t="n">
-        <v>189.6572815851839</v>
+        <v>189.6572815851837</v>
       </c>
       <c r="Y19" t="n">
-        <v>182.5322795482415</v>
+        <v>182.5322795482413</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>346.6814678596274</v>
+        <v>346.6814678596271</v>
       </c>
       <c r="C20" t="n">
-        <v>329.2205179671544</v>
+        <v>329.2205179671541</v>
       </c>
       <c r="D20" t="n">
-        <v>318.6306678168298</v>
+        <v>318.6306678168295</v>
       </c>
       <c r="E20" t="n">
-        <v>345.8779962684086</v>
+        <v>345.8779962684083</v>
       </c>
       <c r="F20" t="n">
-        <v>370.8236719378583</v>
+        <v>370.823671937858</v>
       </c>
       <c r="G20" t="n">
-        <v>374.1629469373457</v>
+        <v>374.1629469373455</v>
       </c>
       <c r="H20" t="n">
-        <v>251.3209212758404</v>
+        <v>251.3209212758414</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>57.0381860463223</v>
+        <v>57.0381860463221</v>
       </c>
       <c r="T20" t="n">
-        <v>164.7733088323719</v>
+        <v>164.7733088323724</v>
       </c>
       <c r="U20" t="n">
-        <v>214.8862857620678</v>
+        <v>214.8862857620681</v>
       </c>
       <c r="V20" t="n">
-        <v>291.6998846662817</v>
+        <v>291.6998846662814</v>
       </c>
       <c r="W20" t="n">
-        <v>313.1885949135598</v>
+        <v>313.1885949135595</v>
       </c>
       <c r="X20" t="n">
-        <v>333.6787268746158</v>
+        <v>333.6787268746156</v>
       </c>
       <c r="Y20" t="n">
-        <v>350.1855648522004</v>
+        <v>350.1855648522001</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>85.94657801591546</v>
       </c>
       <c r="I21" t="n">
-        <v>5.804123945703509</v>
+        <v>5.804123945703523</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>143.7796063780841</v>
+        <v>143.7796063780838</v>
       </c>
       <c r="C22" t="n">
-        <v>131.1944472947746</v>
+        <v>131.1944472947744</v>
       </c>
       <c r="D22" t="n">
-        <v>112.5630992143591</v>
+        <v>112.5630992143589</v>
       </c>
       <c r="E22" t="n">
-        <v>110.381588842716</v>
+        <v>110.3815888427157</v>
       </c>
       <c r="F22" t="n">
-        <v>109.368674219078</v>
+        <v>109.3686742190778</v>
       </c>
       <c r="G22" t="n">
-        <v>129.6565655303953</v>
+        <v>129.656565530395</v>
       </c>
       <c r="H22" t="n">
-        <v>105.8853883065167</v>
+        <v>105.8853883065164</v>
       </c>
       <c r="I22" t="n">
-        <v>50.77093384988109</v>
+        <v>50.77093384988086</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>38.63219975746094</v>
+        <v>38.6321997574607</v>
       </c>
       <c r="S22" t="n">
-        <v>148.1944903566543</v>
+        <v>148.1944903566541</v>
       </c>
       <c r="T22" t="n">
-        <v>182.1426809755298</v>
+        <v>182.1426809755295</v>
       </c>
       <c r="U22" t="n">
-        <v>250.1421806422262</v>
+        <v>250.142180642226</v>
       </c>
       <c r="V22" t="n">
-        <v>216.0852695199748</v>
+        <v>216.0852695199745</v>
       </c>
       <c r="W22" t="n">
-        <v>250.4706245327378</v>
+        <v>250.4706245327375</v>
       </c>
       <c r="X22" t="n">
-        <v>189.6572815851839</v>
+        <v>189.6572815851837</v>
       </c>
       <c r="Y22" t="n">
-        <v>182.5322795482416</v>
+        <v>182.5322795482413</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>346.6814678596273</v>
+        <v>346.6814678596271</v>
       </c>
       <c r="C23" t="n">
-        <v>329.2205179671543</v>
+        <v>329.2205179671541</v>
       </c>
       <c r="D23" t="n">
-        <v>318.6306678168297</v>
+        <v>318.6306678168295</v>
       </c>
       <c r="E23" t="n">
-        <v>345.8779962684085</v>
+        <v>345.8779962684083</v>
       </c>
       <c r="F23" t="n">
-        <v>370.8236719378582</v>
+        <v>370.823671937858</v>
       </c>
       <c r="G23" t="n">
-        <v>374.1629469373457</v>
+        <v>374.1629469373455</v>
       </c>
       <c r="H23" t="n">
-        <v>251.3209212758404</v>
+        <v>251.3209212758402</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>57.03818604632229</v>
+        <v>57.03818604632181</v>
       </c>
       <c r="T23" t="n">
-        <v>164.7733088323727</v>
+        <v>164.7733088323724</v>
       </c>
       <c r="U23" t="n">
-        <v>214.8862857620678</v>
+        <v>214.8862857620692</v>
       </c>
       <c r="V23" t="n">
-        <v>291.6998846662817</v>
+        <v>291.6998846662814</v>
       </c>
       <c r="W23" t="n">
-        <v>313.1885949135598</v>
+        <v>313.1885949135595</v>
       </c>
       <c r="X23" t="n">
-        <v>333.6787268746158</v>
+        <v>333.6787268746156</v>
       </c>
       <c r="Y23" t="n">
-        <v>350.1855648522003</v>
+        <v>350.1855648522001</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>143.7796063780841</v>
+        <v>143.7796063780838</v>
       </c>
       <c r="C25" t="n">
-        <v>131.1944472947746</v>
+        <v>131.1944472947744</v>
       </c>
       <c r="D25" t="n">
-        <v>112.5630992143591</v>
+        <v>112.5630992143589</v>
       </c>
       <c r="E25" t="n">
-        <v>110.3815888427159</v>
+        <v>110.3815888427157</v>
       </c>
       <c r="F25" t="n">
-        <v>109.368674219078</v>
+        <v>109.3686742190778</v>
       </c>
       <c r="G25" t="n">
-        <v>129.6565655303952</v>
+        <v>129.656565530395</v>
       </c>
       <c r="H25" t="n">
-        <v>105.8853883065167</v>
+        <v>105.8853883065164</v>
       </c>
       <c r="I25" t="n">
-        <v>50.77093384988108</v>
+        <v>50.77093384988086</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>38.63219975746092</v>
+        <v>38.6321997574607</v>
       </c>
       <c r="S25" t="n">
-        <v>148.1944903566543</v>
+        <v>148.1944903566541</v>
       </c>
       <c r="T25" t="n">
-        <v>182.1426809755297</v>
+        <v>182.1426809755295</v>
       </c>
       <c r="U25" t="n">
-        <v>250.1421806422262</v>
+        <v>250.142180642226</v>
       </c>
       <c r="V25" t="n">
-        <v>216.0852695199748</v>
+        <v>216.0852695199745</v>
       </c>
       <c r="W25" t="n">
-        <v>250.4706245327378</v>
+        <v>250.4706245327375</v>
       </c>
       <c r="X25" t="n">
-        <v>189.6572815851839</v>
+        <v>189.6572815851837</v>
       </c>
       <c r="Y25" t="n">
-        <v>182.5322795482415</v>
+        <v>182.5322795482413</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>349.2871874645941</v>
       </c>
       <c r="F26" t="n">
-        <v>374.2328631340437</v>
+        <v>326.5041863874443</v>
       </c>
       <c r="G26" t="n">
         <v>377.5721381335312</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>12.71870049590843</v>
+        <v>60.44737724250783</v>
       </c>
       <c r="T26" t="n">
         <v>168.1825000285582</v>
@@ -2721,16 +2721,16 @@
         <v>115.9722904105446</v>
       </c>
       <c r="E28" t="n">
-        <v>113.7907800389014</v>
+        <v>113.7907800389015</v>
       </c>
       <c r="F28" t="n">
         <v>112.7778654152635</v>
       </c>
       <c r="G28" t="n">
-        <v>133.0657567265807</v>
+        <v>133.0657567265808</v>
       </c>
       <c r="H28" t="n">
-        <v>109.2945795027022</v>
+        <v>109.294579502702</v>
       </c>
       <c r="I28" t="n">
         <v>54.18012504606659</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04139095364643</v>
+        <v>42.04139095364646</v>
       </c>
       <c r="S28" t="n">
-        <v>151.6036815528398</v>
+        <v>151.6036815528403</v>
       </c>
       <c r="T28" t="n">
-        <v>185.5518721717157</v>
+        <v>185.5518721717153</v>
       </c>
       <c r="U28" t="n">
-        <v>253.5513718384121</v>
+        <v>253.5513718384117</v>
       </c>
       <c r="V28" t="n">
         <v>219.4944607161603</v>
@@ -2803,7 +2803,7 @@
         <v>349.2871874645941</v>
       </c>
       <c r="F29" t="n">
-        <v>326.504186387444</v>
+        <v>374.2328631340437</v>
       </c>
       <c r="G29" t="n">
         <v>377.5721381335312</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.44737724250786</v>
+        <v>60.44737724250783</v>
       </c>
       <c r="T29" t="n">
         <v>168.1825000285582</v>
       </c>
       <c r="U29" t="n">
-        <v>218.2954769582539</v>
+        <v>170.5668002116562</v>
       </c>
       <c r="V29" t="n">
         <v>295.1090758624672</v>
@@ -2952,16 +2952,16 @@
         <v>147.1887975742696</v>
       </c>
       <c r="C31" t="n">
-        <v>134.6036384909602</v>
+        <v>134.6036384909601</v>
       </c>
       <c r="D31" t="n">
-        <v>115.9722904105447</v>
+        <v>115.9722904105446</v>
       </c>
       <c r="E31" t="n">
         <v>113.7907800389015</v>
       </c>
       <c r="F31" t="n">
-        <v>112.7778654152636</v>
+        <v>112.7778654152635</v>
       </c>
       <c r="G31" t="n">
         <v>133.0657567265808</v>
@@ -2970,7 +2970,7 @@
         <v>109.2945795027022</v>
       </c>
       <c r="I31" t="n">
-        <v>54.18012504606663</v>
+        <v>54.18012504606671</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04139095364648</v>
+        <v>42.04139095364646</v>
       </c>
       <c r="S31" t="n">
         <v>151.6036815528398</v>
@@ -3006,7 +3006,7 @@
         <v>185.5518721717153</v>
       </c>
       <c r="U31" t="n">
-        <v>253.5513718384117</v>
+        <v>253.5513718384114</v>
       </c>
       <c r="V31" t="n">
         <v>219.4944607161603</v>
@@ -3015,7 +3015,7 @@
         <v>253.8798157289233</v>
       </c>
       <c r="X31" t="n">
-        <v>193.0664727813695</v>
+        <v>193.0664727813694</v>
       </c>
       <c r="Y31" t="n">
         <v>185.9414707444271</v>
@@ -3046,7 +3046,7 @@
         <v>374.1629469373455</v>
       </c>
       <c r="H32" t="n">
-        <v>251.3209212758402</v>
+        <v>251.3209212758403</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>57.0381860463221</v>
+        <v>57.03818604632271</v>
       </c>
       <c r="T32" t="n">
-        <v>164.7733088323728</v>
+        <v>164.7733088323725</v>
       </c>
       <c r="U32" t="n">
-        <v>214.8862857620687</v>
+        <v>214.8862857620682</v>
       </c>
       <c r="V32" t="n">
         <v>291.6998846662815</v>
@@ -3268,7 +3268,7 @@
         <v>346.6814678596272</v>
       </c>
       <c r="C35" t="n">
-        <v>329.2205179671566</v>
+        <v>329.2205179671541</v>
       </c>
       <c r="D35" t="n">
         <v>318.6306678168295</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>57.03818604632212</v>
+        <v>57.0381860463221</v>
       </c>
       <c r="T35" t="n">
         <v>164.7733088323725</v>
       </c>
       <c r="U35" t="n">
-        <v>214.8862857620682</v>
+        <v>214.8862857620687</v>
       </c>
       <c r="V35" t="n">
         <v>291.6998846662815</v>
@@ -3432,19 +3432,19 @@
         <v>112.5630992143589</v>
       </c>
       <c r="E37" t="n">
-        <v>110.3815888427158</v>
+        <v>110.3815888427157</v>
       </c>
       <c r="F37" t="n">
         <v>109.3686742190778</v>
       </c>
       <c r="G37" t="n">
-        <v>129.6565655303951</v>
+        <v>129.656565530395</v>
       </c>
       <c r="H37" t="n">
         <v>105.8853883065165</v>
       </c>
       <c r="I37" t="n">
-        <v>50.7709338498809</v>
+        <v>50.77093384988088</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>38.63219975746075</v>
+        <v>38.63219975746073</v>
       </c>
       <c r="S37" t="n">
         <v>148.1944903566541</v>
       </c>
       <c r="T37" t="n">
-        <v>182.1426809755296</v>
+        <v>182.1426809755295</v>
       </c>
       <c r="U37" t="n">
         <v>250.142180642226</v>
@@ -3492,7 +3492,7 @@
         <v>189.6572815851837</v>
       </c>
       <c r="Y37" t="n">
-        <v>182.5322795482414</v>
+        <v>182.5322795482413</v>
       </c>
     </row>
     <row r="38">
@@ -3508,13 +3508,13 @@
         <v>329.2205179671541</v>
       </c>
       <c r="D38" t="n">
-        <v>318.6306678168296</v>
+        <v>318.6306678168295</v>
       </c>
       <c r="E38" t="n">
         <v>345.8779962684084</v>
       </c>
       <c r="F38" t="n">
-        <v>370.8236719378581</v>
+        <v>370.823671937858</v>
       </c>
       <c r="G38" t="n">
         <v>374.1629469373455</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>57.03818604632215</v>
+        <v>57.0381860463221</v>
       </c>
       <c r="T38" t="n">
         <v>164.7733088323725</v>
@@ -3565,10 +3565,10 @@
         <v>291.6998846662815</v>
       </c>
       <c r="W38" t="n">
-        <v>313.1885949135597</v>
+        <v>313.1885949135596</v>
       </c>
       <c r="X38" t="n">
-        <v>333.6787268746157</v>
+        <v>333.6787268746156</v>
       </c>
       <c r="Y38" t="n">
         <v>350.1855648522002</v>
@@ -3666,22 +3666,22 @@
         <v>131.1944472947744</v>
       </c>
       <c r="D40" t="n">
-        <v>112.563099214359</v>
+        <v>112.5630992143589</v>
       </c>
       <c r="E40" t="n">
-        <v>110.3815888427158</v>
+        <v>110.3815888427157</v>
       </c>
       <c r="F40" t="n">
-        <v>109.3686742190779</v>
+        <v>109.3686742190778</v>
       </c>
       <c r="G40" t="n">
-        <v>129.6565655303951</v>
+        <v>129.656565530395</v>
       </c>
       <c r="H40" t="n">
         <v>105.8853883065165</v>
       </c>
       <c r="I40" t="n">
-        <v>50.77093384988093</v>
+        <v>50.77093384988088</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>38.63219975746078</v>
+        <v>38.63219975746073</v>
       </c>
       <c r="S40" t="n">
         <v>148.1944903566541</v>
       </c>
       <c r="T40" t="n">
-        <v>182.1426809755296</v>
+        <v>182.1426809755295</v>
       </c>
       <c r="U40" t="n">
         <v>250.142180642226</v>
@@ -3726,10 +3726,10 @@
         <v>250.4706245327376</v>
       </c>
       <c r="X40" t="n">
-        <v>189.6572815851838</v>
+        <v>189.6572815851837</v>
       </c>
       <c r="Y40" t="n">
-        <v>182.5322795482414</v>
+        <v>182.5322795482413</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>350.0906590558129</v>
+        <v>302.361982309215</v>
       </c>
       <c r="C41" t="n">
         <v>332.6297091633398</v>
@@ -3748,7 +3748,7 @@
         <v>322.0398590130152</v>
       </c>
       <c r="E41" t="n">
-        <v>301.5585107179948</v>
+        <v>349.2871874645941</v>
       </c>
       <c r="F41" t="n">
         <v>374.2328631340437</v>
@@ -3760,7 +3760,7 @@
         <v>254.730112472026</v>
       </c>
       <c r="I41" t="n">
-        <v>8.581935162510489e-13</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>185.5518721717152</v>
       </c>
       <c r="U43" t="n">
-        <v>253.5513718384117</v>
+        <v>253.5513718384123</v>
       </c>
       <c r="V43" t="n">
         <v>219.4944607161603</v>
@@ -3979,19 +3979,19 @@
         <v>350.0906590558128</v>
       </c>
       <c r="C44" t="n">
-        <v>332.6297091633398</v>
+        <v>332.6297091633397</v>
       </c>
       <c r="D44" t="n">
-        <v>322.0398590130152</v>
+        <v>322.0398590130151</v>
       </c>
       <c r="E44" t="n">
         <v>349.287187464594</v>
       </c>
       <c r="F44" t="n">
-        <v>374.2328631340437</v>
+        <v>374.2328631340436</v>
       </c>
       <c r="G44" t="n">
-        <v>377.5721381335312</v>
+        <v>377.5721381335311</v>
       </c>
       <c r="H44" t="n">
         <v>254.7301124720259</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>12.71870049590933</v>
+        <v>60.44737724250774</v>
       </c>
       <c r="T44" t="n">
         <v>168.1825000285581</v>
       </c>
       <c r="U44" t="n">
-        <v>218.2954769582538</v>
+        <v>170.5668002116594</v>
       </c>
       <c r="V44" t="n">
         <v>295.1090758624671</v>
@@ -4042,7 +4042,7 @@
         <v>316.5977861097452</v>
       </c>
       <c r="X44" t="n">
-        <v>337.0879180708013</v>
+        <v>337.0879180708012</v>
       </c>
       <c r="Y44" t="n">
         <v>353.5947560483858</v>
@@ -4137,7 +4137,7 @@
         <v>147.1887975742695</v>
       </c>
       <c r="C46" t="n">
-        <v>134.6036384909601</v>
+        <v>134.60363849096</v>
       </c>
       <c r="D46" t="n">
         <v>115.9722904105446</v>
@@ -4146,7 +4146,7 @@
         <v>113.7907800389014</v>
       </c>
       <c r="F46" t="n">
-        <v>112.7778654152635</v>
+        <v>112.777865415266</v>
       </c>
       <c r="G46" t="n">
         <v>133.0657567265807</v>
@@ -4155,7 +4155,7 @@
         <v>109.2945795027021</v>
       </c>
       <c r="I46" t="n">
-        <v>54.18012504606833</v>
+        <v>54.18012504606652</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.0413909536464</v>
+        <v>42.04139095364637</v>
       </c>
       <c r="S46" t="n">
-        <v>151.6036815528398</v>
+        <v>151.6036815528397</v>
       </c>
       <c r="T46" t="n">
         <v>185.5518721717152</v>
       </c>
       <c r="U46" t="n">
-        <v>253.5513718384117</v>
+        <v>253.5513718384116</v>
       </c>
       <c r="V46" t="n">
         <v>219.4944607161602</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="C2" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="D2" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="E2" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="F2" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="M2" t="n">
-        <v>2.708632980094639</v>
+        <v>15.77173078919653</v>
       </c>
       <c r="N2" t="n">
-        <v>9.515918264388961</v>
+        <v>22.57901607349085</v>
       </c>
       <c r="O2" t="n">
-        <v>9.515918264388961</v>
+        <v>22.57901607349085</v>
       </c>
       <c r="P2" t="n">
-        <v>9.515918264388961</v>
+        <v>22.57901607349085</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.515918264388961</v>
+        <v>22.57901607349085</v>
       </c>
       <c r="R2" t="n">
-        <v>9.515918264388961</v>
+        <v>22.57901607349085</v>
       </c>
       <c r="S2" t="n">
-        <v>9.515918264388961</v>
+        <v>22.57901607349085</v>
       </c>
       <c r="T2" t="n">
-        <v>9.515918264388961</v>
+        <v>22.57901607349085</v>
       </c>
       <c r="U2" t="n">
-        <v>9.515918264388961</v>
+        <v>22.57901607349085</v>
       </c>
       <c r="V2" t="n">
-        <v>9.515918264388961</v>
+        <v>22.57901607349085</v>
       </c>
       <c r="W2" t="n">
-        <v>14.44108515774386</v>
+        <v>22.57901607349085</v>
       </c>
       <c r="X2" t="n">
-        <v>14.44108515774386</v>
+        <v>22.57901607349085</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.44108515774386</v>
+        <v>22.57901607349085</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C3" t="n">
         <v>0.5500836593369149</v>
@@ -4415,16 +4415,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L3" t="n">
-        <v>5.770716025317804</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M3" t="n">
-        <v>12.57800130961213</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N3" t="n">
-        <v>19.38528659390645</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O3" t="n">
-        <v>26.19257187820077</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P3" t="n">
         <v>27.50418296684575</v>
@@ -4436,25 +4436,25 @@
         <v>13.6131814684388</v>
       </c>
       <c r="S3" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="T3" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="U3" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="V3" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="W3" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X3" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="4">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27.50418296684575</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="C5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F5" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G5" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H5" t="n">
-        <v>18.5383483617937</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I5" t="n">
-        <v>18.5383483617937</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J5" t="n">
-        <v>18.5383483617937</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K5" t="n">
-        <v>18.5383483617937</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L5" t="n">
-        <v>18.5383483617937</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M5" t="n">
-        <v>20.69689768255142</v>
+        <v>2.708632980094639</v>
       </c>
       <c r="N5" t="n">
-        <v>27.50418296684575</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="O5" t="n">
-        <v>27.50418296684575</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="P5" t="n">
-        <v>27.50418296684575</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="Q5" t="n">
-        <v>27.50418296684575</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="R5" t="n">
-        <v>27.50418296684575</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="S5" t="n">
-        <v>27.50418296684575</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="T5" t="n">
-        <v>27.50418296684575</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="U5" t="n">
-        <v>27.50418296684575</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="V5" t="n">
-        <v>27.50418296684575</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="W5" t="n">
-        <v>27.50418296684575</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="X5" t="n">
-        <v>27.50418296684575</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="Y5" t="n">
-        <v>27.50418296684575</v>
+        <v>9.515918264388961</v>
       </c>
     </row>
     <row r="6">
@@ -4634,7 +4634,7 @@
         <v>14.44108515774386</v>
       </c>
       <c r="F6" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G6" t="n">
         <v>7.495584408540386</v>
@@ -4652,13 +4652,13 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L6" t="n">
-        <v>5.770716025317804</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M6" t="n">
-        <v>12.57800130961213</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N6" t="n">
-        <v>19.38528659390645</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O6" t="n">
         <v>26.19257187820077</v>
@@ -4667,31 +4667,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="7">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F8" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G8" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H8" t="n">
-        <v>18.5383483617937</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I8" t="n">
-        <v>18.5383483617937</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
-        <v>18.5383483617937</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>18.5383483617937</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L8" t="n">
-        <v>18.5383483617937</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M8" t="n">
-        <v>20.69689768255142</v>
+        <v>2.708632980094639</v>
       </c>
       <c r="N8" t="n">
-        <v>27.50418296684575</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="O8" t="n">
-        <v>27.50418296684575</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="P8" t="n">
-        <v>27.50418296684575</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="Q8" t="n">
-        <v>27.50418296684575</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="R8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="S8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="9">
@@ -4859,31 +4859,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="C9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="D9" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="E9" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="F9" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="G9" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K9" t="n">
         <v>0.5500836593369149</v>
@@ -4892,10 +4892,10 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M9" t="n">
-        <v>12.57800130961213</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N9" t="n">
-        <v>19.38528659390645</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O9" t="n">
         <v>26.19257187820077</v>
@@ -4904,31 +4904,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T9" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U9" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V9" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W9" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X9" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
     </row>
     <row r="10">
@@ -5041,25 +5041,25 @@
         <v>83.73879080623553</v>
       </c>
       <c r="J11" t="n">
-        <v>331.9736033475101</v>
+        <v>331.973603347511</v>
       </c>
       <c r="K11" t="n">
-        <v>754.7517573559826</v>
+        <v>754.7517573559837</v>
       </c>
       <c r="L11" t="n">
-        <v>1316.147203863093</v>
+        <v>1316.147203863095</v>
       </c>
       <c r="M11" t="n">
-        <v>1972.477244868443</v>
+        <v>1972.477244868445</v>
       </c>
       <c r="N11" t="n">
-        <v>2644.041200488025</v>
+        <v>2644.041200488026</v>
       </c>
       <c r="O11" t="n">
-        <v>3264.844739220393</v>
+        <v>3264.844739220394</v>
       </c>
       <c r="P11" t="n">
-        <v>3760.18519587203</v>
+        <v>3760.185195872032</v>
       </c>
       <c r="Q11" t="n">
         <v>4083.992503261258</v>
@@ -5068,19 +5068,19 @@
         <v>4186.939540311776</v>
       </c>
       <c r="S11" t="n">
-        <v>4125.881583501162</v>
+        <v>4174.092368093684</v>
       </c>
       <c r="T11" t="n">
-        <v>3956.000270341002</v>
+        <v>4004.211054933524</v>
       </c>
       <c r="U11" t="n">
-        <v>3735.499788564988</v>
+        <v>3783.71057315751</v>
       </c>
       <c r="V11" t="n">
-        <v>3485.620597538858</v>
+        <v>3485.620597538857</v>
       </c>
       <c r="W11" t="n">
-        <v>3165.82485399366</v>
+        <v>3165.824853993659</v>
       </c>
       <c r="X11" t="n">
         <v>2825.332007457497</v>
@@ -5129,16 +5129,16 @@
         <v>959.3969066238421</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.486027460285</v>
+        <v>959.3969066238421</v>
       </c>
       <c r="N12" t="n">
-        <v>1674.327143594102</v>
+        <v>1468.921792555543</v>
       </c>
       <c r="O12" t="n">
-        <v>2174.315446793547</v>
+        <v>1968.910095754989</v>
       </c>
       <c r="P12" t="n">
-        <v>2556.267073615276</v>
+        <v>2350.861722576718</v>
       </c>
       <c r="Q12" t="n">
         <v>2556.267073615276</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>865.2388267971642</v>
+        <v>865.2388267971641</v>
       </c>
       <c r="C13" t="n">
         <v>729.2755555941741</v>
@@ -5199,13 +5199,13 @@
         <v>83.73879080623553</v>
       </c>
       <c r="J13" t="n">
-        <v>183.356780686871</v>
+        <v>183.3567806868712</v>
       </c>
       <c r="K13" t="n">
-        <v>456.1069781455053</v>
+        <v>456.1069781455055</v>
       </c>
       <c r="L13" t="n">
-        <v>851.6221969382249</v>
+        <v>851.6221969382252</v>
       </c>
       <c r="M13" t="n">
         <v>1277.26993114916</v>
@@ -5214,7 +5214,7 @@
         <v>1698.999750133974</v>
       </c>
       <c r="O13" t="n">
-        <v>2074.986202218258</v>
+        <v>2074.986202218259</v>
       </c>
       <c r="P13" t="n">
         <v>2377.851071010937</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2114.538658867397</v>
+        <v>2066.327874274874</v>
       </c>
       <c r="C14" t="n">
-        <v>1778.549053651902</v>
+        <v>1730.338269059379</v>
       </c>
       <c r="D14" t="n">
-        <v>1453.256266770069</v>
+        <v>1405.045482177545</v>
       </c>
       <c r="E14" t="n">
-        <v>1100.440925896741</v>
+        <v>1052.230141304218</v>
       </c>
       <c r="F14" t="n">
-        <v>722.4279328320508</v>
+        <v>722.4279328320511</v>
       </c>
       <c r="G14" t="n">
-        <v>341.0419347173729</v>
+        <v>341.041934717373</v>
       </c>
       <c r="H14" t="n">
         <v>83.73879080623553</v>
@@ -5281,13 +5281,13 @@
         <v>331.9736033475101</v>
       </c>
       <c r="K14" t="n">
-        <v>754.7517573559826</v>
+        <v>754.7517573559828</v>
       </c>
       <c r="L14" t="n">
-        <v>1316.147203863093</v>
+        <v>1316.147203863094</v>
       </c>
       <c r="M14" t="n">
-        <v>1972.477244868443</v>
+        <v>1972.477244868444</v>
       </c>
       <c r="N14" t="n">
         <v>2644.041200488025</v>
@@ -5308,22 +5308,22 @@
         <v>4125.881583501162</v>
       </c>
       <c r="T14" t="n">
-        <v>4004.211054933525</v>
+        <v>3956.000270341002</v>
       </c>
       <c r="U14" t="n">
-        <v>3783.710573157511</v>
+        <v>3735.499788564988</v>
       </c>
       <c r="V14" t="n">
-        <v>3485.620597538858</v>
+        <v>3437.409812946334</v>
       </c>
       <c r="W14" t="n">
-        <v>3165.82485399366</v>
+        <v>3117.614069401137</v>
       </c>
       <c r="X14" t="n">
-        <v>2825.332007457497</v>
+        <v>2777.121222864974</v>
       </c>
       <c r="Y14" t="n">
-        <v>2468.165587206602</v>
+        <v>2419.954802614079</v>
       </c>
     </row>
     <row r="15">
@@ -5366,16 +5366,16 @@
         <v>959.3969066238421</v>
       </c>
       <c r="M15" t="n">
-        <v>1485.437654282014</v>
+        <v>959.3969066238421</v>
       </c>
       <c r="N15" t="n">
-        <v>2056.278770415831</v>
+        <v>1468.921792555543</v>
       </c>
       <c r="O15" t="n">
-        <v>2556.267073615276</v>
+        <v>1968.910095754989</v>
       </c>
       <c r="P15" t="n">
-        <v>2556.267073615276</v>
+        <v>2350.861722576718</v>
       </c>
       <c r="Q15" t="n">
         <v>2556.267073615276</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>865.2388267971642</v>
+        <v>865.2388267971644</v>
       </c>
       <c r="C16" t="n">
-        <v>729.275555594174</v>
+        <v>729.2755555941743</v>
       </c>
       <c r="D16" t="n">
-        <v>612.1318279067551</v>
+        <v>612.1318279067555</v>
       </c>
       <c r="E16" t="n">
-        <v>497.1916460492789</v>
+        <v>497.1916460492791</v>
       </c>
       <c r="F16" t="n">
-        <v>383.2746102762854</v>
+        <v>383.2746102762856</v>
       </c>
       <c r="G16" t="n">
-        <v>248.8647549969109</v>
+        <v>248.8647549969111</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4661898426662</v>
+        <v>138.4661898426664</v>
       </c>
       <c r="I16" t="n">
         <v>83.73879080623553</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3567806868714</v>
+        <v>183.3567806868711</v>
       </c>
       <c r="K16" t="n">
-        <v>456.1069781455055</v>
+        <v>456.1069781455054</v>
       </c>
       <c r="L16" t="n">
-        <v>851.6221969382252</v>
+        <v>851.622196938225</v>
       </c>
       <c r="M16" t="n">
         <v>1277.26993114916</v>
@@ -5460,7 +5460,7 @@
         <v>2514.046234940359</v>
       </c>
       <c r="R16" t="n">
-        <v>2471.58018347203</v>
+        <v>2471.580183472029</v>
       </c>
       <c r="S16" t="n">
         <v>2318.445151600474</v>
@@ -5469,10 +5469,10 @@
         <v>2131.019018093691</v>
       </c>
       <c r="U16" t="n">
-        <v>1874.906521287214</v>
+        <v>1874.906521287215</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.194944806244</v>
+        <v>1653.194944806245</v>
       </c>
       <c r="W16" t="n">
         <v>1396.750686494201</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2093.87689404203</v>
+        <v>2093.876894042032</v>
       </c>
       <c r="C17" t="n">
-        <v>1761.33091629743</v>
+        <v>1761.330916297432</v>
       </c>
       <c r="D17" t="n">
-        <v>1439.481756886491</v>
+        <v>1439.481756886493</v>
       </c>
       <c r="E17" t="n">
-        <v>1090.110043484058</v>
+        <v>1090.11004348406</v>
       </c>
       <c r="F17" t="n">
-        <v>715.5406778902619</v>
+        <v>715.5406778902645</v>
       </c>
       <c r="G17" t="n">
-        <v>337.5983072464784</v>
+        <v>337.5983072464782</v>
       </c>
       <c r="H17" t="n">
         <v>83.73879080623553</v>
@@ -5515,22 +5515,22 @@
         <v>83.73879080623553</v>
       </c>
       <c r="J17" t="n">
-        <v>331.97360334751</v>
+        <v>331.973603347511</v>
       </c>
       <c r="K17" t="n">
-        <v>754.7517573559828</v>
+        <v>754.751757355984</v>
       </c>
       <c r="L17" t="n">
-        <v>1316.147203863094</v>
+        <v>1316.147203863095</v>
       </c>
       <c r="M17" t="n">
-        <v>1972.477244868444</v>
+        <v>1972.477244868445</v>
       </c>
       <c r="N17" t="n">
-        <v>2644.041200488025</v>
+        <v>2644.041200488026</v>
       </c>
       <c r="O17" t="n">
-        <v>3264.844739220393</v>
+        <v>3264.844739220394</v>
       </c>
       <c r="P17" t="n">
         <v>3760.185195872031</v>
@@ -5548,19 +5548,19 @@
         <v>3962.887525282792</v>
       </c>
       <c r="U17" t="n">
-        <v>3745.830670977672</v>
+        <v>3745.830670977673</v>
       </c>
       <c r="V17" t="n">
-        <v>3451.184322829913</v>
+        <v>3451.184322829914</v>
       </c>
       <c r="W17" t="n">
-        <v>3134.83220675561</v>
+        <v>3134.832206755611</v>
       </c>
       <c r="X17" t="n">
         <v>2797.782987690342</v>
       </c>
       <c r="Y17" t="n">
-        <v>2444.060194910341</v>
+        <v>2444.060194910342</v>
       </c>
     </row>
     <row r="18">
@@ -5588,7 +5588,7 @@
         <v>176.4162675351436</v>
       </c>
       <c r="H18" t="n">
-        <v>89.6015422665421</v>
+        <v>89.60154226654211</v>
       </c>
       <c r="I18" t="n">
         <v>83.73879080623553</v>
@@ -5597,22 +5597,22 @@
         <v>212.7678976201138</v>
       </c>
       <c r="K18" t="n">
-        <v>511.454017343718</v>
+        <v>511.4540173437179</v>
       </c>
       <c r="L18" t="n">
-        <v>959.3969066238424</v>
+        <v>511.4540173437179</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.481998484884</v>
+        <v>1053.539109204759</v>
       </c>
       <c r="N18" t="n">
-        <v>2072.323114618701</v>
+        <v>1624.380225338576</v>
       </c>
       <c r="O18" t="n">
-        <v>2556.267073615276</v>
+        <v>1968.910095754989</v>
       </c>
       <c r="P18" t="n">
-        <v>2556.267073615276</v>
+        <v>2350.861722576718</v>
       </c>
       <c r="Q18" t="n">
         <v>2556.267073615276</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>841.1334345009028</v>
+        <v>841.1334345009013</v>
       </c>
       <c r="C19" t="n">
-        <v>708.6137907688072</v>
+        <v>708.613790768806</v>
       </c>
       <c r="D19" t="n">
-        <v>594.9136905522829</v>
+        <v>594.9136905522819</v>
       </c>
       <c r="E19" t="n">
-        <v>483.4171361657012</v>
+        <v>483.4171361657004</v>
       </c>
       <c r="F19" t="n">
-        <v>372.9437278636021</v>
+        <v>372.9437278636016</v>
       </c>
       <c r="G19" t="n">
-        <v>241.9775000551221</v>
+        <v>241.9775000551217</v>
       </c>
       <c r="H19" t="n">
-        <v>135.022562371772</v>
+        <v>135.0225623717718</v>
       </c>
       <c r="I19" t="n">
         <v>83.73879080623553</v>
       </c>
       <c r="J19" t="n">
-        <v>186.7318799710949</v>
+        <v>186.7318799710951</v>
       </c>
       <c r="K19" t="n">
-        <v>462.857176713953</v>
+        <v>462.8571767139533</v>
       </c>
       <c r="L19" t="n">
-        <v>779.648660982795</v>
+        <v>861.7474947908968</v>
       </c>
       <c r="M19" t="n">
-        <v>1208.671494477954</v>
+        <v>1208.671494477949</v>
       </c>
       <c r="N19" t="n">
-        <v>1633.776412746991</v>
+        <v>1633.776412746987</v>
       </c>
       <c r="O19" t="n">
-        <v>2013.137964115499</v>
+        <v>2013.137964115495</v>
       </c>
       <c r="P19" t="n">
-        <v>2319.377932192402</v>
+        <v>2319.377932192398</v>
       </c>
       <c r="Q19" t="n">
-        <v>2458.948195406047</v>
+        <v>2458.948195406044</v>
       </c>
       <c r="R19" t="n">
-        <v>2419.925771408612</v>
+        <v>2419.925771408609</v>
       </c>
       <c r="S19" t="n">
-        <v>2270.234367007951</v>
+        <v>2270.234367007948</v>
       </c>
       <c r="T19" t="n">
-        <v>2086.251860972063</v>
+        <v>2086.25186097206</v>
       </c>
       <c r="U19" t="n">
-        <v>1833.582991636481</v>
+        <v>1833.582991636478</v>
       </c>
       <c r="V19" t="n">
-        <v>1615.315042626405</v>
+        <v>1615.315042626403</v>
       </c>
       <c r="W19" t="n">
-        <v>1362.314411785256</v>
+        <v>1362.314411785254</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.74140008305</v>
+        <v>1170.741400083048</v>
       </c>
       <c r="Y19" t="n">
-        <v>986.3653601353311</v>
+        <v>986.3653601353294</v>
       </c>
     </row>
     <row r="20">
@@ -5737,25 +5737,25 @@
         <v>1439.481756886491</v>
       </c>
       <c r="E20" t="n">
-        <v>1090.110043484058</v>
+        <v>1090.110043484059</v>
       </c>
       <c r="F20" t="n">
-        <v>715.540677890262</v>
+        <v>715.5406778902627</v>
       </c>
       <c r="G20" t="n">
-        <v>337.5983072464784</v>
+        <v>337.5983072464794</v>
       </c>
       <c r="H20" t="n">
-        <v>83.73879080623553</v>
+        <v>83.73879080623549</v>
       </c>
       <c r="I20" t="n">
-        <v>83.73879080623553</v>
+        <v>83.73879080623549</v>
       </c>
       <c r="J20" t="n">
-        <v>331.9736033475097</v>
+        <v>331.9736033475098</v>
       </c>
       <c r="K20" t="n">
-        <v>754.7517573559826</v>
+        <v>754.7517573559825</v>
       </c>
       <c r="L20" t="n">
         <v>1316.147203863093</v>
@@ -5764,37 +5764,37 @@
         <v>1972.477244868443</v>
       </c>
       <c r="N20" t="n">
-        <v>2644.041200488026</v>
+        <v>2644.041200488025</v>
       </c>
       <c r="O20" t="n">
-        <v>3264.844739220393</v>
+        <v>3264.844739220392</v>
       </c>
       <c r="P20" t="n">
-        <v>3760.185195872031</v>
+        <v>3760.185195872029</v>
       </c>
       <c r="Q20" t="n">
-        <v>4083.992503261258</v>
+        <v>4083.992503261256</v>
       </c>
       <c r="R20" t="n">
-        <v>4186.939540311776</v>
+        <v>4186.939540311774</v>
       </c>
       <c r="S20" t="n">
-        <v>4129.325210972056</v>
+        <v>4129.325210972055</v>
       </c>
       <c r="T20" t="n">
-        <v>3962.887525282792</v>
+        <v>3962.88752528279</v>
       </c>
       <c r="U20" t="n">
-        <v>3745.830670977673</v>
+        <v>3745.830670977671</v>
       </c>
       <c r="V20" t="n">
-        <v>3451.184322829913</v>
+        <v>3451.184322829912</v>
       </c>
       <c r="W20" t="n">
-        <v>3134.83220675561</v>
+        <v>3134.832206755609</v>
       </c>
       <c r="X20" t="n">
-        <v>2797.782987690342</v>
+        <v>2797.782987690341</v>
       </c>
       <c r="Y20" t="n">
         <v>2444.060194910341</v>
@@ -5825,31 +5825,31 @@
         <v>176.4162675351436</v>
       </c>
       <c r="H21" t="n">
-        <v>89.6015422665421</v>
+        <v>89.60154226654207</v>
       </c>
       <c r="I21" t="n">
-        <v>83.73879080623553</v>
+        <v>83.73879080623549</v>
       </c>
       <c r="J21" t="n">
-        <v>212.7678976201138</v>
+        <v>212.7678976201137</v>
       </c>
       <c r="K21" t="n">
-        <v>511.454017343718</v>
+        <v>290.0043221022894</v>
       </c>
       <c r="L21" t="n">
-        <v>959.3969066238424</v>
+        <v>737.9472113824137</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.481998484884</v>
+        <v>1280.032303243455</v>
       </c>
       <c r="N21" t="n">
-        <v>2072.323114618701</v>
+        <v>1850.873419377272</v>
       </c>
       <c r="O21" t="n">
-        <v>2556.267073615276</v>
+        <v>2350.861722576718</v>
       </c>
       <c r="P21" t="n">
-        <v>2556.267073615276</v>
+        <v>2350.861722576718</v>
       </c>
       <c r="Q21" t="n">
         <v>2556.267073615276</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>841.1334345009029</v>
+        <v>841.1334345009012</v>
       </c>
       <c r="C22" t="n">
-        <v>708.6137907688073</v>
+        <v>708.6137907688059</v>
       </c>
       <c r="D22" t="n">
-        <v>594.913690552283</v>
+        <v>594.9136905522818</v>
       </c>
       <c r="E22" t="n">
-        <v>483.4171361657013</v>
+        <v>483.4171361657002</v>
       </c>
       <c r="F22" t="n">
-        <v>372.9437278636022</v>
+        <v>372.9437278636015</v>
       </c>
       <c r="G22" t="n">
-        <v>241.9775000551222</v>
+        <v>241.9775000551217</v>
       </c>
       <c r="H22" t="n">
-        <v>135.022562371772</v>
+        <v>135.0225623717717</v>
       </c>
       <c r="I22" t="n">
-        <v>83.73879080623553</v>
+        <v>83.73879080623549</v>
       </c>
       <c r="J22" t="n">
-        <v>186.7318799710949</v>
+        <v>186.7318799710951</v>
       </c>
       <c r="K22" t="n">
-        <v>462.8571767139529</v>
+        <v>462.8571767139533</v>
       </c>
       <c r="L22" t="n">
-        <v>861.7474947908961</v>
+        <v>861.7474947908968</v>
       </c>
       <c r="M22" t="n">
-        <v>1290.770328286055</v>
+        <v>1290.770328286056</v>
       </c>
       <c r="N22" t="n">
-        <v>1715.875246555092</v>
+        <v>1715.875246555094</v>
       </c>
       <c r="O22" t="n">
-        <v>2013.137964115499</v>
+        <v>2095.236797923602</v>
       </c>
       <c r="P22" t="n">
-        <v>2319.377932192402</v>
+        <v>2319.377932192398</v>
       </c>
       <c r="Q22" t="n">
-        <v>2458.948195406047</v>
+        <v>2458.948195406044</v>
       </c>
       <c r="R22" t="n">
-        <v>2419.925771408612</v>
+        <v>2419.925771408609</v>
       </c>
       <c r="S22" t="n">
-        <v>2270.234367007951</v>
+        <v>2270.234367007948</v>
       </c>
       <c r="T22" t="n">
-        <v>2086.251860972063</v>
+        <v>2086.25186097206</v>
       </c>
       <c r="U22" t="n">
-        <v>1833.582991636481</v>
+        <v>1833.582991636478</v>
       </c>
       <c r="V22" t="n">
-        <v>1615.315042626405</v>
+        <v>1615.315042626403</v>
       </c>
       <c r="W22" t="n">
-        <v>1362.314411785256</v>
+        <v>1362.314411785254</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.74140008305</v>
+        <v>1170.741400083048</v>
       </c>
       <c r="Y22" t="n">
-        <v>986.3653601353312</v>
+        <v>986.3653601353293</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2093.87689404203</v>
+        <v>2093.876894042029</v>
       </c>
       <c r="C23" t="n">
-        <v>1761.33091629743</v>
+        <v>1761.330916297429</v>
       </c>
       <c r="D23" t="n">
-        <v>1439.481756886491</v>
+        <v>1439.48175688649</v>
       </c>
       <c r="E23" t="n">
         <v>1090.110043484058</v>
       </c>
       <c r="F23" t="n">
-        <v>715.5406778902619</v>
+        <v>715.5406778902616</v>
       </c>
       <c r="G23" t="n">
-        <v>337.5983072464784</v>
+        <v>337.5983072464781</v>
       </c>
       <c r="H23" t="n">
-        <v>83.73879080623553</v>
+        <v>83.73879080623549</v>
       </c>
       <c r="I23" t="n">
-        <v>83.73879080623553</v>
+        <v>83.73879080623549</v>
       </c>
       <c r="J23" t="n">
-        <v>331.973603347511</v>
+        <v>331.9736033475097</v>
       </c>
       <c r="K23" t="n">
-        <v>754.751757355984</v>
+        <v>754.7517573559824</v>
       </c>
       <c r="L23" t="n">
-        <v>1316.147203863095</v>
+        <v>1316.147203863093</v>
       </c>
       <c r="M23" t="n">
-        <v>1972.477244868445</v>
+        <v>1972.477244868443</v>
       </c>
       <c r="N23" t="n">
-        <v>2644.041200488026</v>
+        <v>2644.041200488024</v>
       </c>
       <c r="O23" t="n">
-        <v>3264.844739220393</v>
+        <v>3264.844739220392</v>
       </c>
       <c r="P23" t="n">
-        <v>3760.185195872031</v>
+        <v>3760.185195872029</v>
       </c>
       <c r="Q23" t="n">
-        <v>4083.992503261258</v>
+        <v>4083.992503261256</v>
       </c>
       <c r="R23" t="n">
-        <v>4186.939540311776</v>
+        <v>4186.939540311774</v>
       </c>
       <c r="S23" t="n">
-        <v>4129.325210972056</v>
+        <v>4129.325210972055</v>
       </c>
       <c r="T23" t="n">
-        <v>3962.887525282791</v>
+        <v>3962.88752528279</v>
       </c>
       <c r="U23" t="n">
-        <v>3745.830670977672</v>
+        <v>3745.83067097767</v>
       </c>
       <c r="V23" t="n">
-        <v>3451.184322829913</v>
+        <v>3451.184322829911</v>
       </c>
       <c r="W23" t="n">
-        <v>3134.83220675561</v>
+        <v>3134.832206755608</v>
       </c>
       <c r="X23" t="n">
-        <v>2797.782987690342</v>
+        <v>2797.78298769034</v>
       </c>
       <c r="Y23" t="n">
-        <v>2444.060194910341</v>
+        <v>2444.060194910339</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>176.4162675351436</v>
       </c>
       <c r="H24" t="n">
-        <v>89.60154226654211</v>
+        <v>89.60154226654207</v>
       </c>
       <c r="I24" t="n">
-        <v>83.73879080623553</v>
+        <v>83.73879080623549</v>
       </c>
       <c r="J24" t="n">
-        <v>212.7678976201138</v>
+        <v>212.7678976201137</v>
       </c>
       <c r="K24" t="n">
-        <v>511.4540173437179</v>
+        <v>495.4096731408483</v>
       </c>
       <c r="L24" t="n">
-        <v>959.3969066238421</v>
+        <v>943.3525624209725</v>
       </c>
       <c r="M24" t="n">
-        <v>1501.481998484883</v>
+        <v>1485.437654282014</v>
       </c>
       <c r="N24" t="n">
-        <v>2072.3231146187</v>
+        <v>2056.278770415831</v>
       </c>
       <c r="O24" t="n">
-        <v>2533.176549880037</v>
+        <v>2556.267073615276</v>
       </c>
       <c r="P24" t="n">
-        <v>2533.176549880037</v>
+        <v>2556.267073615276</v>
       </c>
       <c r="Q24" t="n">
-        <v>2533.176549880037</v>
+        <v>2556.267073615276</v>
       </c>
       <c r="R24" t="n">
         <v>2556.267073615276</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>841.1334345009029</v>
+        <v>841.1334345009012</v>
       </c>
       <c r="C25" t="n">
-        <v>708.6137907688073</v>
+        <v>708.6137907688059</v>
       </c>
       <c r="D25" t="n">
-        <v>594.913690552283</v>
+        <v>594.9136905522818</v>
       </c>
       <c r="E25" t="n">
-        <v>483.4171361657012</v>
+        <v>483.4171361657002</v>
       </c>
       <c r="F25" t="n">
-        <v>372.9437278636022</v>
+        <v>372.9437278636015</v>
       </c>
       <c r="G25" t="n">
-        <v>241.9775000551222</v>
+        <v>241.9775000551217</v>
       </c>
       <c r="H25" t="n">
-        <v>135.022562371772</v>
+        <v>135.0225623717717</v>
       </c>
       <c r="I25" t="n">
-        <v>83.73879080623553</v>
+        <v>83.73879080623549</v>
       </c>
       <c r="J25" t="n">
-        <v>186.7318799710949</v>
+        <v>186.7318799710951</v>
       </c>
       <c r="K25" t="n">
-        <v>462.8571767139529</v>
+        <v>462.8571767139533</v>
       </c>
       <c r="L25" t="n">
-        <v>779.648660982795</v>
+        <v>861.7474947908968</v>
       </c>
       <c r="M25" t="n">
-        <v>1208.671494477954</v>
+        <v>1290.770328286056</v>
       </c>
       <c r="N25" t="n">
-        <v>1633.776412746991</v>
+        <v>1715.875246555094</v>
       </c>
       <c r="O25" t="n">
-        <v>2013.137964115499</v>
+        <v>2095.236797923602</v>
       </c>
       <c r="P25" t="n">
-        <v>2319.377932192402</v>
+        <v>2384.067460986372</v>
       </c>
       <c r="Q25" t="n">
-        <v>2458.948195406047</v>
+        <v>2458.948195406044</v>
       </c>
       <c r="R25" t="n">
-        <v>2419.925771408612</v>
+        <v>2419.925771408609</v>
       </c>
       <c r="S25" t="n">
-        <v>2270.234367007951</v>
+        <v>2270.234367007948</v>
       </c>
       <c r="T25" t="n">
-        <v>2086.251860972063</v>
+        <v>2086.25186097206</v>
       </c>
       <c r="U25" t="n">
-        <v>1833.582991636481</v>
+        <v>1833.582991636478</v>
       </c>
       <c r="V25" t="n">
-        <v>1615.315042626405</v>
+        <v>1615.315042626403</v>
       </c>
       <c r="W25" t="n">
-        <v>1362.314411785256</v>
+        <v>1362.314411785254</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.74140008305</v>
+        <v>1170.741400083048</v>
       </c>
       <c r="Y25" t="n">
-        <v>986.3653601353312</v>
+        <v>986.3653601353293</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2114.538658867397</v>
+        <v>2066.327874274873</v>
       </c>
       <c r="C26" t="n">
-        <v>1778.549053651902</v>
+        <v>1730.338269059378</v>
       </c>
       <c r="D26" t="n">
-        <v>1453.256266770069</v>
+        <v>1405.045482177544</v>
       </c>
       <c r="E26" t="n">
-        <v>1100.440925896741</v>
+        <v>1052.230141304217</v>
       </c>
       <c r="F26" t="n">
         <v>722.4279328320508</v>
@@ -6226,10 +6226,10 @@
         <v>83.73879080623549</v>
       </c>
       <c r="J26" t="n">
-        <v>331.9736033475099</v>
+        <v>331.9736033475098</v>
       </c>
       <c r="K26" t="n">
-        <v>754.7517573559826</v>
+        <v>754.7517573559825</v>
       </c>
       <c r="L26" t="n">
         <v>1316.147203863093</v>
@@ -6241,10 +6241,10 @@
         <v>2644.041200488025</v>
       </c>
       <c r="O26" t="n">
-        <v>3264.844739220393</v>
+        <v>3264.844739220392</v>
       </c>
       <c r="P26" t="n">
-        <v>3760.18519587203</v>
+        <v>3760.185195872029</v>
       </c>
       <c r="Q26" t="n">
         <v>4083.992503261256</v>
@@ -6253,25 +6253,25 @@
         <v>4186.939540311774</v>
       </c>
       <c r="S26" t="n">
-        <v>4174.092368093685</v>
+        <v>4125.88158350116</v>
       </c>
       <c r="T26" t="n">
-        <v>4004.211054933525</v>
+        <v>3956.000270341</v>
       </c>
       <c r="U26" t="n">
-        <v>3783.710573157511</v>
+        <v>3735.499788564986</v>
       </c>
       <c r="V26" t="n">
-        <v>3485.620597538858</v>
+        <v>3437.409812946333</v>
       </c>
       <c r="W26" t="n">
-        <v>3165.82485399366</v>
+        <v>3117.614069401136</v>
       </c>
       <c r="X26" t="n">
-        <v>2825.332007457497</v>
+        <v>2777.121222864972</v>
       </c>
       <c r="Y26" t="n">
-        <v>2468.165587206602</v>
+        <v>2419.954802614077</v>
       </c>
     </row>
     <row r="27">
@@ -6363,19 +6363,19 @@
         <v>865.2388267971639</v>
       </c>
       <c r="C28" t="n">
-        <v>729.275555594174</v>
+        <v>729.2755555941739</v>
       </c>
       <c r="D28" t="n">
-        <v>612.1318279067551</v>
+        <v>612.131827906755</v>
       </c>
       <c r="E28" t="n">
-        <v>497.1916460492789</v>
+        <v>497.1916460492788</v>
       </c>
       <c r="F28" t="n">
-        <v>383.2746102762855</v>
+        <v>383.2746102762853</v>
       </c>
       <c r="G28" t="n">
-        <v>248.864754996911</v>
+        <v>248.8647549969108</v>
       </c>
       <c r="H28" t="n">
         <v>138.4661898426664</v>
@@ -6384,34 +6384,34 @@
         <v>83.73879080623549</v>
       </c>
       <c r="J28" t="n">
-        <v>183.3567806868714</v>
+        <v>183.3567806868713</v>
       </c>
       <c r="K28" t="n">
-        <v>456.1069781455058</v>
+        <v>456.1069781455056</v>
       </c>
       <c r="L28" t="n">
-        <v>851.6221969382254</v>
+        <v>851.6221969382252</v>
       </c>
       <c r="M28" t="n">
-        <v>1277.269931149161</v>
+        <v>1277.26993114916</v>
       </c>
       <c r="N28" t="n">
         <v>1698.999750133974</v>
       </c>
       <c r="O28" t="n">
-        <v>2074.986202218259</v>
+        <v>2074.986202218258</v>
       </c>
       <c r="P28" t="n">
-        <v>2377.851071010938</v>
+        <v>2377.851071010937</v>
       </c>
       <c r="Q28" t="n">
-        <v>2514.04623494036</v>
+        <v>2514.046234940359</v>
       </c>
       <c r="R28" t="n">
         <v>2471.58018347203</v>
       </c>
       <c r="S28" t="n">
-        <v>2318.445151600475</v>
+        <v>2318.445151600474</v>
       </c>
       <c r="T28" t="n">
         <v>2131.019018093691</v>
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2066.327874274872</v>
+        <v>2114.538658867397</v>
       </c>
       <c r="C29" t="n">
-        <v>1730.338269059377</v>
+        <v>1778.549053651902</v>
       </c>
       <c r="D29" t="n">
-        <v>1405.045482177544</v>
+        <v>1453.256266770069</v>
       </c>
       <c r="E29" t="n">
-        <v>1052.230141304216</v>
+        <v>1100.440925896741</v>
       </c>
       <c r="F29" t="n">
         <v>722.4279328320508</v>
@@ -6457,13 +6457,13 @@
         <v>341.0419347173729</v>
       </c>
       <c r="H29" t="n">
-        <v>83.73879080623549</v>
+        <v>83.73879080623553</v>
       </c>
       <c r="I29" t="n">
-        <v>83.73879080623549</v>
+        <v>83.73879080623553</v>
       </c>
       <c r="J29" t="n">
-        <v>331.9736033475099</v>
+        <v>331.9736033475101</v>
       </c>
       <c r="K29" t="n">
         <v>754.7517573559826</v>
@@ -6472,43 +6472,43 @@
         <v>1316.147203863093</v>
       </c>
       <c r="M29" t="n">
-        <v>1972.477244868442</v>
+        <v>1972.477244868443</v>
       </c>
       <c r="N29" t="n">
-        <v>2644.041200488024</v>
+        <v>2644.041200488025</v>
       </c>
       <c r="O29" t="n">
-        <v>3264.844739220392</v>
+        <v>3264.844739220393</v>
       </c>
       <c r="P29" t="n">
-        <v>3760.185195872029</v>
+        <v>3760.18519587203</v>
       </c>
       <c r="Q29" t="n">
-        <v>4083.992503261256</v>
+        <v>4083.992503261258</v>
       </c>
       <c r="R29" t="n">
-        <v>4186.939540311774</v>
+        <v>4186.939540311776</v>
       </c>
       <c r="S29" t="n">
-        <v>4125.88158350116</v>
+        <v>4125.881583501162</v>
       </c>
       <c r="T29" t="n">
-        <v>3956.000270341</v>
+        <v>3956.000270341002</v>
       </c>
       <c r="U29" t="n">
-        <v>3735.499788564986</v>
+        <v>3783.710573157511</v>
       </c>
       <c r="V29" t="n">
-        <v>3437.409812946332</v>
+        <v>3485.620597538858</v>
       </c>
       <c r="W29" t="n">
-        <v>3117.614069401135</v>
+        <v>3165.82485399366</v>
       </c>
       <c r="X29" t="n">
-        <v>2777.121222864972</v>
+        <v>2825.332007457497</v>
       </c>
       <c r="Y29" t="n">
-        <v>2419.954802614077</v>
+        <v>2468.165587206602</v>
       </c>
     </row>
     <row r="30">
@@ -6536,25 +6536,25 @@
         <v>176.4162675351436</v>
       </c>
       <c r="H30" t="n">
-        <v>89.60154226654207</v>
+        <v>89.60154226654211</v>
       </c>
       <c r="I30" t="n">
-        <v>83.73879080623549</v>
+        <v>83.73879080623553</v>
       </c>
       <c r="J30" t="n">
-        <v>212.7678976201137</v>
+        <v>212.7678976201138</v>
       </c>
       <c r="K30" t="n">
-        <v>511.4540173437178</v>
+        <v>511.4540173437179</v>
       </c>
       <c r="L30" t="n">
-        <v>959.396906623842</v>
+        <v>959.3969066238421</v>
       </c>
       <c r="M30" t="n">
         <v>1501.481998484883</v>
       </c>
       <c r="N30" t="n">
-        <v>2072.3231146187</v>
+        <v>2056.278770415831</v>
       </c>
       <c r="O30" t="n">
         <v>2556.267073615276</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>865.2388267971644</v>
+        <v>865.2388267971646</v>
       </c>
       <c r="C31" t="n">
-        <v>729.2755555941743</v>
+        <v>729.2755555941745</v>
       </c>
       <c r="D31" t="n">
-        <v>612.1318279067555</v>
+        <v>612.1318279067557</v>
       </c>
       <c r="E31" t="n">
-        <v>497.1916460492791</v>
+        <v>497.1916460492795</v>
       </c>
       <c r="F31" t="n">
-        <v>383.2746102762857</v>
+        <v>383.274610276286</v>
       </c>
       <c r="G31" t="n">
-        <v>248.8647549969111</v>
+        <v>248.8647549969112</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4661898426664</v>
+        <v>138.4661898426666</v>
       </c>
       <c r="I31" t="n">
-        <v>83.73879080623549</v>
+        <v>83.73879080623553</v>
       </c>
       <c r="J31" t="n">
         <v>183.3567806868712</v>
@@ -6645,7 +6645,7 @@
         <v>2514.046234940359</v>
       </c>
       <c r="R31" t="n">
-        <v>2471.580183472029</v>
+        <v>2471.58018347203</v>
       </c>
       <c r="S31" t="n">
         <v>2318.445151600474</v>
@@ -6654,16 +6654,16 @@
         <v>2131.019018093691</v>
       </c>
       <c r="U31" t="n">
-        <v>1874.906521287214</v>
+        <v>1874.906521287215</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.194944806244</v>
+        <v>1653.194944806245</v>
       </c>
       <c r="W31" t="n">
         <v>1396.750686494201</v>
       </c>
       <c r="X31" t="n">
-        <v>1201.7340473211</v>
+        <v>1201.734047321101</v>
       </c>
       <c r="Y31" t="n">
         <v>1013.914379902487</v>
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2093.876894042029</v>
+        <v>2093.87689404203</v>
       </c>
       <c r="C32" t="n">
         <v>1761.330916297429</v>
@@ -6685,10 +6685,10 @@
         <v>1439.48175688649</v>
       </c>
       <c r="E32" t="n">
-        <v>1090.110043484057</v>
+        <v>1090.110043484058</v>
       </c>
       <c r="F32" t="n">
-        <v>715.5406778902611</v>
+        <v>715.5406778902616</v>
       </c>
       <c r="G32" t="n">
         <v>337.5983072464782</v>
@@ -6706,13 +6706,13 @@
         <v>754.7517573559825</v>
       </c>
       <c r="L32" t="n">
-        <v>1316.147203863094</v>
+        <v>1316.147203863093</v>
       </c>
       <c r="M32" t="n">
         <v>1972.477244868443</v>
       </c>
       <c r="N32" t="n">
-        <v>2644.041200488024</v>
+        <v>2644.041200488025</v>
       </c>
       <c r="O32" t="n">
         <v>3264.844739220392</v>
@@ -6727,10 +6727,10 @@
         <v>4186.939540311774</v>
       </c>
       <c r="S32" t="n">
-        <v>4129.325210972055</v>
+        <v>4129.325210972054</v>
       </c>
       <c r="T32" t="n">
-        <v>3962.88752528279</v>
+        <v>3962.887525282789</v>
       </c>
       <c r="U32" t="n">
         <v>3745.83067097767</v>
@@ -6742,10 +6742,10 @@
         <v>3134.832206755608</v>
       </c>
       <c r="X32" t="n">
-        <v>2797.782987690339</v>
+        <v>2797.78298769034</v>
       </c>
       <c r="Y32" t="n">
-        <v>2444.060194910339</v>
+        <v>2444.06019491034</v>
       </c>
     </row>
     <row r="33">
@@ -6791,7 +6791,7 @@
         <v>1501.481998484883</v>
       </c>
       <c r="N33" t="n">
-        <v>2072.3231146187</v>
+        <v>2056.278770415831</v>
       </c>
       <c r="O33" t="n">
         <v>2556.267073615276</v>
@@ -6864,13 +6864,13 @@
         <v>462.8571767139533</v>
       </c>
       <c r="L34" t="n">
-        <v>779.6486609827905</v>
+        <v>861.7474947908968</v>
       </c>
       <c r="M34" t="n">
-        <v>1208.67149447795</v>
+        <v>1290.770328286056</v>
       </c>
       <c r="N34" t="n">
-        <v>1633.776412746987</v>
+        <v>1715.875246555094</v>
       </c>
       <c r="O34" t="n">
         <v>2013.137964115496</v>
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2093.876894042032</v>
+        <v>2093.87689404203</v>
       </c>
       <c r="C35" t="n">
         <v>1761.330916297429</v>
@@ -6928,61 +6928,61 @@
         <v>715.5406778902616</v>
       </c>
       <c r="G35" t="n">
-        <v>337.5983072464783</v>
+        <v>337.5983072464782</v>
       </c>
       <c r="H35" t="n">
-        <v>83.73879080623553</v>
+        <v>83.73879080623549</v>
       </c>
       <c r="I35" t="n">
-        <v>83.73879080623553</v>
+        <v>83.73879080623549</v>
       </c>
       <c r="J35" t="n">
-        <v>331.973603347511</v>
+        <v>331.9736033475097</v>
       </c>
       <c r="K35" t="n">
-        <v>754.751757355984</v>
+        <v>754.7517573559824</v>
       </c>
       <c r="L35" t="n">
-        <v>1316.147203863095</v>
+        <v>1316.147203863093</v>
       </c>
       <c r="M35" t="n">
-        <v>1972.477244868445</v>
+        <v>1972.477244868443</v>
       </c>
       <c r="N35" t="n">
-        <v>2644.041200488026</v>
+        <v>2644.041200488024</v>
       </c>
       <c r="O35" t="n">
-        <v>3264.844739220394</v>
+        <v>3264.844739220392</v>
       </c>
       <c r="P35" t="n">
-        <v>3760.185195872031</v>
+        <v>3760.185195872029</v>
       </c>
       <c r="Q35" t="n">
-        <v>4083.992503261258</v>
+        <v>4083.992503261256</v>
       </c>
       <c r="R35" t="n">
-        <v>4186.939540311776</v>
+        <v>4186.939540311774</v>
       </c>
       <c r="S35" t="n">
-        <v>4129.325210972057</v>
+        <v>4129.325210972055</v>
       </c>
       <c r="T35" t="n">
-        <v>3962.887525282792</v>
+        <v>3962.88752528279</v>
       </c>
       <c r="U35" t="n">
-        <v>3745.830670977673</v>
+        <v>3745.83067097767</v>
       </c>
       <c r="V35" t="n">
-        <v>3451.184322829914</v>
+        <v>3451.184322829911</v>
       </c>
       <c r="W35" t="n">
-        <v>3134.832206755611</v>
+        <v>3134.832206755608</v>
       </c>
       <c r="X35" t="n">
-        <v>2797.782987690342</v>
+        <v>2797.78298769034</v>
       </c>
       <c r="Y35" t="n">
-        <v>2444.060194910342</v>
+        <v>2444.06019491034</v>
       </c>
     </row>
     <row r="36">
@@ -7010,22 +7010,22 @@
         <v>176.4162675351436</v>
       </c>
       <c r="H36" t="n">
-        <v>89.60154226654211</v>
+        <v>89.60154226654207</v>
       </c>
       <c r="I36" t="n">
-        <v>83.73879080623553</v>
+        <v>83.73879080623549</v>
       </c>
       <c r="J36" t="n">
-        <v>212.7678976201138</v>
+        <v>212.7678976201137</v>
       </c>
       <c r="K36" t="n">
-        <v>495.4096731408483</v>
+        <v>511.4540173437178</v>
       </c>
       <c r="L36" t="n">
-        <v>943.3525624209725</v>
+        <v>959.396906623842</v>
       </c>
       <c r="M36" t="n">
-        <v>1485.437654282014</v>
+        <v>1501.481998484883</v>
       </c>
       <c r="N36" t="n">
         <v>2056.278770415831</v>
@@ -7071,64 +7071,64 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>841.1334345009017</v>
+        <v>841.1334345009013</v>
       </c>
       <c r="C37" t="n">
-        <v>708.6137907688063</v>
+        <v>708.613790768806</v>
       </c>
       <c r="D37" t="n">
-        <v>594.9136905522821</v>
+        <v>594.9136905522819</v>
       </c>
       <c r="E37" t="n">
-        <v>483.4171361657005</v>
+        <v>483.4171361657004</v>
       </c>
       <c r="F37" t="n">
-        <v>372.9437278636017</v>
+        <v>372.9437278636016</v>
       </c>
       <c r="G37" t="n">
-        <v>241.9775000551218</v>
+        <v>241.9775000551217</v>
       </c>
       <c r="H37" t="n">
-        <v>135.0225623717718</v>
+        <v>135.0225623717717</v>
       </c>
       <c r="I37" t="n">
-        <v>83.73879080623553</v>
+        <v>83.73879080623549</v>
       </c>
       <c r="J37" t="n">
-        <v>186.7318799710951</v>
+        <v>153.4320010615989</v>
       </c>
       <c r="K37" t="n">
-        <v>462.8571767139533</v>
+        <v>429.5572978044571</v>
       </c>
       <c r="L37" t="n">
-        <v>861.7474947908968</v>
+        <v>828.4476158814006</v>
       </c>
       <c r="M37" t="n">
-        <v>1290.770328286056</v>
+        <v>1257.47044937656</v>
       </c>
       <c r="N37" t="n">
-        <v>1715.875246555094</v>
+        <v>1682.575367645597</v>
       </c>
       <c r="O37" t="n">
-        <v>2095.236797923602</v>
+        <v>2061.936919014106</v>
       </c>
       <c r="P37" t="n">
-        <v>2319.377932192398</v>
+        <v>2368.176887091008</v>
       </c>
       <c r="Q37" t="n">
-        <v>2458.948195406045</v>
+        <v>2458.948195406044</v>
       </c>
       <c r="R37" t="n">
-        <v>2419.92577140861</v>
+        <v>2419.925771408609</v>
       </c>
       <c r="S37" t="n">
         <v>2270.234367007949</v>
       </c>
       <c r="T37" t="n">
-        <v>2086.251860972061</v>
+        <v>2086.25186097206</v>
       </c>
       <c r="U37" t="n">
-        <v>1833.582991636479</v>
+        <v>1833.582991636478</v>
       </c>
       <c r="V37" t="n">
         <v>1615.315042626403</v>
@@ -7140,7 +7140,7 @@
         <v>1170.741400083048</v>
       </c>
       <c r="Y37" t="n">
-        <v>986.3653601353299</v>
+        <v>986.3653601353294</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2093.87689404203</v>
+        <v>2093.876894042032</v>
       </c>
       <c r="C38" t="n">
-        <v>1761.33091629743</v>
+        <v>1761.330916297432</v>
       </c>
       <c r="D38" t="n">
-        <v>1439.481756886491</v>
+        <v>1439.481756886493</v>
       </c>
       <c r="E38" t="n">
-        <v>1090.110043484058</v>
+        <v>1090.11004348406</v>
       </c>
       <c r="F38" t="n">
-        <v>715.5406778902616</v>
+        <v>715.5406778902641</v>
       </c>
       <c r="G38" t="n">
-        <v>337.5983072464782</v>
+        <v>337.5983072464807</v>
       </c>
       <c r="H38" t="n">
-        <v>83.73879080623549</v>
+        <v>83.738790806238</v>
       </c>
       <c r="I38" t="n">
-        <v>83.73879080623549</v>
+        <v>83.73879080623553</v>
       </c>
       <c r="J38" t="n">
-        <v>331.9736033475097</v>
+        <v>331.9736033475099</v>
       </c>
       <c r="K38" t="n">
-        <v>754.7517573559824</v>
+        <v>754.7517573559826</v>
       </c>
       <c r="L38" t="n">
         <v>1316.147203863093</v>
@@ -7186,40 +7186,40 @@
         <v>1972.477244868443</v>
       </c>
       <c r="N38" t="n">
-        <v>2644.041200488024</v>
+        <v>2644.041200488025</v>
       </c>
       <c r="O38" t="n">
-        <v>3264.844739220392</v>
+        <v>3264.844739220393</v>
       </c>
       <c r="P38" t="n">
-        <v>3760.185195872029</v>
+        <v>3760.18519587203</v>
       </c>
       <c r="Q38" t="n">
-        <v>4083.992503261256</v>
+        <v>4083.992503261257</v>
       </c>
       <c r="R38" t="n">
-        <v>4186.939540311774</v>
+        <v>4186.939540311776</v>
       </c>
       <c r="S38" t="n">
-        <v>4129.325210972055</v>
+        <v>4129.325210972057</v>
       </c>
       <c r="T38" t="n">
-        <v>3962.88752528279</v>
+        <v>3962.887525282792</v>
       </c>
       <c r="U38" t="n">
-        <v>3745.83067097767</v>
+        <v>3745.830670977673</v>
       </c>
       <c r="V38" t="n">
-        <v>3451.184322829911</v>
+        <v>3451.184322829914</v>
       </c>
       <c r="W38" t="n">
-        <v>3134.832206755609</v>
+        <v>3134.832206755611</v>
       </c>
       <c r="X38" t="n">
-        <v>2797.782987690341</v>
+        <v>2797.782987690342</v>
       </c>
       <c r="Y38" t="n">
-        <v>2444.06019491034</v>
+        <v>2444.060194910342</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>176.4162675351436</v>
       </c>
       <c r="H39" t="n">
-        <v>89.60154226654207</v>
+        <v>89.60154226654211</v>
       </c>
       <c r="I39" t="n">
-        <v>83.73879080623549</v>
+        <v>83.73879080623553</v>
       </c>
       <c r="J39" t="n">
-        <v>212.7678976201137</v>
+        <v>212.7678976201138</v>
       </c>
       <c r="K39" t="n">
-        <v>511.4540173437178</v>
+        <v>511.4540173437179</v>
       </c>
       <c r="L39" t="n">
-        <v>959.396906623842</v>
+        <v>959.3969066238421</v>
       </c>
       <c r="M39" t="n">
         <v>1501.481998484883</v>
       </c>
       <c r="N39" t="n">
-        <v>2072.3231146187</v>
+        <v>2056.278770415831</v>
       </c>
       <c r="O39" t="n">
         <v>2556.267073615276</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>841.1334345009018</v>
+        <v>841.1334345009013</v>
       </c>
       <c r="C40" t="n">
-        <v>708.6137907688063</v>
+        <v>708.613790768806</v>
       </c>
       <c r="D40" t="n">
-        <v>594.9136905522821</v>
+        <v>594.9136905522819</v>
       </c>
       <c r="E40" t="n">
-        <v>483.4171361657005</v>
+        <v>483.4171361657004</v>
       </c>
       <c r="F40" t="n">
-        <v>372.9437278636017</v>
+        <v>372.9437278636016</v>
       </c>
       <c r="G40" t="n">
-        <v>241.9775000551218</v>
+        <v>241.9775000551217</v>
       </c>
       <c r="H40" t="n">
         <v>135.0225623717718</v>
       </c>
       <c r="I40" t="n">
-        <v>83.73879080623549</v>
+        <v>83.73879080623553</v>
       </c>
       <c r="J40" t="n">
-        <v>186.731879971095</v>
+        <v>153.432001061599</v>
       </c>
       <c r="K40" t="n">
-        <v>462.8571767139532</v>
+        <v>429.5572978044572</v>
       </c>
       <c r="L40" t="n">
-        <v>861.7474947908966</v>
+        <v>779.6486609827905</v>
       </c>
       <c r="M40" t="n">
-        <v>1290.770328286056</v>
+        <v>1208.67149447795</v>
       </c>
       <c r="N40" t="n">
-        <v>1715.875246555093</v>
+        <v>1633.776412746987</v>
       </c>
       <c r="O40" t="n">
-        <v>2095.236797923601</v>
+        <v>2013.137964115496</v>
       </c>
       <c r="P40" t="n">
-        <v>2319.377932192399</v>
+        <v>2319.377932192398</v>
       </c>
       <c r="Q40" t="n">
-        <v>2458.948195406045</v>
+        <v>2458.948195406044</v>
       </c>
       <c r="R40" t="n">
-        <v>2419.92577140861</v>
+        <v>2419.925771408609</v>
       </c>
       <c r="S40" t="n">
         <v>2270.234367007949</v>
       </c>
       <c r="T40" t="n">
-        <v>2086.251860972061</v>
+        <v>2086.25186097206</v>
       </c>
       <c r="U40" t="n">
-        <v>1833.582991636479</v>
+        <v>1833.582991636478</v>
       </c>
       <c r="V40" t="n">
-        <v>1615.315042626404</v>
+        <v>1615.315042626403</v>
       </c>
       <c r="W40" t="n">
         <v>1362.314411785254</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.741400083049</v>
+        <v>1170.741400083048</v>
       </c>
       <c r="Y40" t="n">
-        <v>986.36536013533</v>
+        <v>986.3653601353294</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2066.327874274873</v>
+        <v>2114.538658867397</v>
       </c>
       <c r="C41" t="n">
-        <v>1730.338269059378</v>
+        <v>1778.549053651902</v>
       </c>
       <c r="D41" t="n">
-        <v>1405.045482177544</v>
+        <v>1453.256266770069</v>
       </c>
       <c r="E41" t="n">
         <v>1100.440925896741</v>
@@ -7405,58 +7405,58 @@
         <v>341.0419347173729</v>
       </c>
       <c r="H41" t="n">
-        <v>83.73879080623549</v>
+        <v>83.73879080623553</v>
       </c>
       <c r="I41" t="n">
-        <v>83.73879080623462</v>
+        <v>83.73879080623553</v>
       </c>
       <c r="J41" t="n">
-        <v>331.973603347509</v>
+        <v>331.973603347511</v>
       </c>
       <c r="K41" t="n">
-        <v>754.7517573559817</v>
+        <v>754.751757355984</v>
       </c>
       <c r="L41" t="n">
-        <v>1316.147203863092</v>
+        <v>1316.147203863095</v>
       </c>
       <c r="M41" t="n">
-        <v>1972.477244868442</v>
+        <v>1972.477244868444</v>
       </c>
       <c r="N41" t="n">
-        <v>2644.041200488024</v>
+        <v>2644.041200488026</v>
       </c>
       <c r="O41" t="n">
-        <v>3264.844739220392</v>
+        <v>3264.844739220393</v>
       </c>
       <c r="P41" t="n">
-        <v>3760.185195872029</v>
+        <v>3760.185195872031</v>
       </c>
       <c r="Q41" t="n">
-        <v>4083.992503261256</v>
+        <v>4083.992503261258</v>
       </c>
       <c r="R41" t="n">
-        <v>4186.939540311774</v>
+        <v>4186.939540311776</v>
       </c>
       <c r="S41" t="n">
-        <v>4125.88158350116</v>
+        <v>4125.881583501162</v>
       </c>
       <c r="T41" t="n">
-        <v>3956.000270341</v>
+        <v>3956.000270341002</v>
       </c>
       <c r="U41" t="n">
-        <v>3735.499788564986</v>
+        <v>3735.499788564988</v>
       </c>
       <c r="V41" t="n">
-        <v>3437.409812946333</v>
+        <v>3437.409812946335</v>
       </c>
       <c r="W41" t="n">
-        <v>3117.614069401136</v>
+        <v>3117.614069401137</v>
       </c>
       <c r="X41" t="n">
-        <v>2777.121222864972</v>
+        <v>2777.121222864974</v>
       </c>
       <c r="Y41" t="n">
-        <v>2419.954802614077</v>
+        <v>2419.954802614079</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>176.4162675351436</v>
       </c>
       <c r="H42" t="n">
-        <v>89.60154226654207</v>
+        <v>89.60154226654211</v>
       </c>
       <c r="I42" t="n">
-        <v>83.73879080623549</v>
+        <v>83.73879080623553</v>
       </c>
       <c r="J42" t="n">
-        <v>212.7678976201137</v>
+        <v>212.7678976201138</v>
       </c>
       <c r="K42" t="n">
-        <v>511.4540173437178</v>
+        <v>511.4540173437179</v>
       </c>
       <c r="L42" t="n">
-        <v>959.396906623842</v>
+        <v>959.3969066238421</v>
       </c>
       <c r="M42" t="n">
         <v>1501.481998484883</v>
       </c>
       <c r="N42" t="n">
-        <v>2072.3231146187</v>
+        <v>2056.278770415831</v>
       </c>
       <c r="O42" t="n">
-        <v>2533.176549880037</v>
+        <v>2556.267073615276</v>
       </c>
       <c r="P42" t="n">
-        <v>2533.176549880037</v>
+        <v>2556.267073615276</v>
       </c>
       <c r="Q42" t="n">
-        <v>2533.176549880037</v>
+        <v>2556.267073615276</v>
       </c>
       <c r="R42" t="n">
         <v>2556.267073615276</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>865.2388267971639</v>
+        <v>865.2388267971641</v>
       </c>
       <c r="C43" t="n">
-        <v>729.275555594174</v>
+        <v>729.2755555941741</v>
       </c>
       <c r="D43" t="n">
-        <v>612.1318279067551</v>
+        <v>612.1318279067552</v>
       </c>
       <c r="E43" t="n">
-        <v>497.1916460492789</v>
+        <v>497.191646049279</v>
       </c>
       <c r="F43" t="n">
-        <v>383.2746102762855</v>
+        <v>383.2746102762856</v>
       </c>
       <c r="G43" t="n">
         <v>248.864754996911</v>
@@ -7566,40 +7566,40 @@
         <v>138.4661898426664</v>
       </c>
       <c r="I43" t="n">
-        <v>83.73879080623549</v>
+        <v>83.73879080623553</v>
       </c>
       <c r="J43" t="n">
         <v>183.3567806868712</v>
       </c>
       <c r="K43" t="n">
-        <v>456.1069781455055</v>
+        <v>456.1069781455057</v>
       </c>
       <c r="L43" t="n">
-        <v>851.6221969382252</v>
+        <v>851.6221969382253</v>
       </c>
       <c r="M43" t="n">
-        <v>1277.26993114916</v>
+        <v>1277.269931149161</v>
       </c>
       <c r="N43" t="n">
         <v>1698.999750133974</v>
       </c>
       <c r="O43" t="n">
-        <v>2074.986202218258</v>
+        <v>2074.986202218259</v>
       </c>
       <c r="P43" t="n">
-        <v>2377.851071010937</v>
+        <v>2377.851071010938</v>
       </c>
       <c r="Q43" t="n">
-        <v>2514.046234940359</v>
+        <v>2514.04623494036</v>
       </c>
       <c r="R43" t="n">
-        <v>2471.580183472029</v>
+        <v>2471.58018347203</v>
       </c>
       <c r="S43" t="n">
-        <v>2318.445151600474</v>
+        <v>2318.445151600475</v>
       </c>
       <c r="T43" t="n">
-        <v>2131.019018093691</v>
+        <v>2131.019018093692</v>
       </c>
       <c r="U43" t="n">
         <v>1874.906521287214</v>
@@ -7608,7 +7608,7 @@
         <v>1653.194944806244</v>
       </c>
       <c r="W43" t="n">
-        <v>1396.7506864942</v>
+        <v>1396.750686494201</v>
       </c>
       <c r="X43" t="n">
         <v>1201.7340473211</v>
@@ -7636,61 +7636,61 @@
         <v>1100.440925896741</v>
       </c>
       <c r="F44" t="n">
-        <v>722.4279328320508</v>
+        <v>722.4279328320506</v>
       </c>
       <c r="G44" t="n">
         <v>341.0419347173728</v>
       </c>
       <c r="H44" t="n">
-        <v>83.73879080623549</v>
+        <v>83.73879080623556</v>
       </c>
       <c r="I44" t="n">
-        <v>83.73879080623549</v>
+        <v>83.73879080623826</v>
       </c>
       <c r="J44" t="n">
-        <v>331.9736033475099</v>
+        <v>331.9736033475127</v>
       </c>
       <c r="K44" t="n">
-        <v>754.7517573559826</v>
+        <v>754.7517573559853</v>
       </c>
       <c r="L44" t="n">
-        <v>1316.147203863093</v>
+        <v>1316.147203863096</v>
       </c>
       <c r="M44" t="n">
-        <v>1972.477244868443</v>
+        <v>1972.477244868446</v>
       </c>
       <c r="N44" t="n">
-        <v>2644.041200488025</v>
+        <v>2644.041200488028</v>
       </c>
       <c r="O44" t="n">
-        <v>3264.844739220393</v>
+        <v>3264.844739220395</v>
       </c>
       <c r="P44" t="n">
-        <v>3760.18519587203</v>
+        <v>3760.185195872033</v>
       </c>
       <c r="Q44" t="n">
-        <v>4083.992503261257</v>
+        <v>4083.99250326126</v>
       </c>
       <c r="R44" t="n">
-        <v>4186.939540311774</v>
+        <v>4186.939540311778</v>
       </c>
       <c r="S44" t="n">
-        <v>4174.092368093684</v>
+        <v>4125.881583501164</v>
       </c>
       <c r="T44" t="n">
-        <v>4004.211054933524</v>
+        <v>3956.000270341004</v>
       </c>
       <c r="U44" t="n">
         <v>3783.71057315751</v>
       </c>
       <c r="V44" t="n">
-        <v>3485.620597538857</v>
+        <v>3485.620597538856</v>
       </c>
       <c r="W44" t="n">
         <v>3165.824853993659</v>
       </c>
       <c r="X44" t="n">
-        <v>2825.332007457497</v>
+        <v>2825.332007457496</v>
       </c>
       <c r="Y44" t="n">
         <v>2468.165587206602</v>
@@ -7721,25 +7721,25 @@
         <v>176.4162675351436</v>
       </c>
       <c r="H45" t="n">
-        <v>89.60154226654207</v>
+        <v>89.60154226654214</v>
       </c>
       <c r="I45" t="n">
-        <v>83.73879080623549</v>
+        <v>83.73879080623556</v>
       </c>
       <c r="J45" t="n">
-        <v>212.7678976201137</v>
+        <v>212.7678976201138</v>
       </c>
       <c r="K45" t="n">
-        <v>511.4540173437178</v>
+        <v>511.4540173437179</v>
       </c>
       <c r="L45" t="n">
-        <v>959.396906623842</v>
+        <v>959.3969066238421</v>
       </c>
       <c r="M45" t="n">
         <v>1501.481998484883</v>
       </c>
       <c r="N45" t="n">
-        <v>2072.3231146187</v>
+        <v>2056.278770415831</v>
       </c>
       <c r="O45" t="n">
         <v>2556.267073615276</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>865.2388267971655</v>
+        <v>865.2388267971662</v>
       </c>
       <c r="C46" t="n">
-        <v>729.2755555941756</v>
+        <v>729.2755555941762</v>
       </c>
       <c r="D46" t="n">
-        <v>612.1318279067568</v>
+        <v>612.1318279067575</v>
       </c>
       <c r="E46" t="n">
-        <v>497.1916460492806</v>
+        <v>497.1916460492814</v>
       </c>
       <c r="F46" t="n">
-        <v>383.2746102762872</v>
+        <v>383.2746102762854</v>
       </c>
       <c r="G46" t="n">
-        <v>248.8647549969128</v>
+        <v>248.864754996911</v>
       </c>
       <c r="H46" t="n">
-        <v>138.4661898426681</v>
+        <v>138.4661898426664</v>
       </c>
       <c r="I46" t="n">
-        <v>83.73879080623549</v>
+        <v>83.73879080623556</v>
       </c>
       <c r="J46" t="n">
-        <v>183.3567806868712</v>
+        <v>183.3567806868713</v>
       </c>
       <c r="K46" t="n">
-        <v>456.1069781455056</v>
+        <v>456.1069781455058</v>
       </c>
       <c r="L46" t="n">
-        <v>851.6221969382253</v>
+        <v>851.6221969382254</v>
       </c>
       <c r="M46" t="n">
         <v>1277.269931149161</v>
@@ -7827,13 +7827,13 @@
         <v>2377.851071010938</v>
       </c>
       <c r="Q46" t="n">
-        <v>2514.04623494036</v>
+        <v>2514.046234940361</v>
       </c>
       <c r="R46" t="n">
         <v>2471.580183472031</v>
       </c>
       <c r="S46" t="n">
-        <v>2318.445151600475</v>
+        <v>2318.445151600476</v>
       </c>
       <c r="T46" t="n">
         <v>2131.019018093692</v>
@@ -7848,10 +7848,10 @@
         <v>1396.750686494202</v>
       </c>
       <c r="X46" t="n">
-        <v>1201.734047321101</v>
+        <v>1201.734047321102</v>
       </c>
       <c r="Y46" t="n">
-        <v>1013.914379902488</v>
+        <v>1013.914379902489</v>
       </c>
     </row>
   </sheetData>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.63624132272311</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
         <v>106.7437663446525</v>
@@ -9327,10 +9327,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>79.54658658387638</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M19" t="n">
-        <v>178.5096609094456</v>
+        <v>95.58154595176205</v>
       </c>
       <c r="N19" t="n">
         <v>171.8177168444618</v>
@@ -9573,10 +9573,10 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O22" t="n">
-        <v>80.11355140820453</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>52.07844835635746</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9801,7 +9801,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>79.54658658387649</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
         <v>178.5096609094456</v>
@@ -9813,10 +9813,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
-        <v>135.0065633140411</v>
+        <v>117.4214067341092</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10512,7 +10512,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>79.54658658387135</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
         <v>178.5096609094456</v>
@@ -10521,7 +10521,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>80.1135514081993</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>106.7437663446525</v>
@@ -10761,10 +10761,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
-        <v>52.07844835635842</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.34295837775146</v>
+        <v>16.05108474279176</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>162.4747015415544</v>
+        <v>113.1828279065947</v>
       </c>
       <c r="M40" t="n">
         <v>178.5096609094456</v>
@@ -10998,7 +10998,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>52.07844835635939</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>47.72867674659666</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>47.72867674659784</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>47.72867674659875</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>47.7286767465979</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>47.72867674659938</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.72867674659936</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>47.72867674659977</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>47.72867674659764</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>47.72867674659784</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>47.72867674659926</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.72867674659844</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>47.7286767465944</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>648611.5887016298</v>
+        <v>648611.5887016299</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>648611.5887016299</v>
+        <v>648611.5887016298</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>650312.0490457624</v>
+        <v>650312.0490457623</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>650312.0490457624</v>
+        <v>650312.0490457623</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>650312.0490457624</v>
+        <v>650312.0490457623</v>
       </c>
     </row>
     <row r="10">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>648611.5887016298</v>
+        <v>648611.58870163</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>799964.5050556248</v>
+        <v>799964.5050556246</v>
       </c>
       <c r="C2" t="n">
         <v>799964.5050556246</v>
@@ -26322,40 +26322,40 @@
         <v>799964.5050556246</v>
       </c>
       <c r="E2" t="n">
+        <v>796811.5030153729</v>
+      </c>
+      <c r="F2" t="n">
         <v>796811.5030153727</v>
       </c>
-      <c r="F2" t="n">
-        <v>796811.5030153729</v>
-      </c>
       <c r="G2" t="n">
-        <v>800515.7256176773</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="H2" t="n">
-        <v>800515.7256176773</v>
+        <v>800515.725617676</v>
       </c>
       <c r="I2" t="n">
         <v>800515.7256176771</v>
       </c>
       <c r="J2" t="n">
+        <v>796811.5030153723</v>
+      </c>
+      <c r="K2" t="n">
         <v>796811.5030153728</v>
       </c>
-      <c r="K2" t="n">
-        <v>796811.5030153724</v>
-      </c>
       <c r="L2" t="n">
-        <v>800515.7256176771</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.7256176773</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.725617677</v>
+        <v>800515.7256176772</v>
       </c>
       <c r="O2" t="n">
         <v>796811.5030153724</v>
       </c>
       <c r="P2" t="n">
-        <v>796811.5030153727</v>
+        <v>796811.503015373</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2727.352956948602</v>
+        <v>2727.352956948625</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25186.26924123002</v>
+        <v>25186.26924122998</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>6.019399734213948e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>5454.705913897022</v>
+        <v>5454.705913897088</v>
       </c>
       <c r="M3" t="n">
         <v>259136.9821979465</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20659.84017223724</v>
+        <v>20659.84017223704</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>356013.7579013872</v>
       </c>
       <c r="C4" t="n">
-        <v>356013.7579013872</v>
+        <v>356013.7579013873</v>
       </c>
       <c r="D4" t="n">
         <v>356013.7579013872</v>
       </c>
       <c r="E4" t="n">
+        <v>48137.29166578999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>48137.29166578992</v>
+      </c>
+      <c r="G4" t="n">
+        <v>50180.63812856491</v>
+      </c>
+      <c r="H4" t="n">
+        <v>50180.63812856491</v>
+      </c>
+      <c r="I4" t="n">
+        <v>50180.63812856491</v>
+      </c>
+      <c r="J4" t="n">
         <v>48137.29166578996</v>
       </c>
-      <c r="F4" t="n">
+      <c r="K4" t="n">
         <v>48137.29166578996</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50180.63812856479</v>
-      </c>
-      <c r="H4" t="n">
-        <v>50180.63812856475</v>
-      </c>
-      <c r="I4" t="n">
-        <v>50180.63812856479</v>
-      </c>
-      <c r="J4" t="n">
-        <v>48137.29166578998</v>
-      </c>
-      <c r="K4" t="n">
-        <v>48137.29166578989</v>
       </c>
       <c r="L4" t="n">
         <v>50180.6381285649</v>
       </c>
       <c r="M4" t="n">
-        <v>50180.63812856489</v>
+        <v>50180.6381285649</v>
       </c>
       <c r="N4" t="n">
-        <v>50180.63812856487</v>
+        <v>50180.63812856478</v>
       </c>
       <c r="O4" t="n">
-        <v>48137.29166578993</v>
+        <v>48137.29166578997</v>
       </c>
       <c r="P4" t="n">
-        <v>48137.29166579002</v>
+        <v>48137.29166579017</v>
       </c>
     </row>
     <row r="5">
@@ -26484,7 +26484,7 @@
         <v>93973.55004224522</v>
       </c>
       <c r="G5" t="n">
-        <v>94260.15733691734</v>
+        <v>94260.15733691736</v>
       </c>
       <c r="H5" t="n">
         <v>94260.15733691733</v>
@@ -26496,22 +26496,22 @@
         <v>93973.55004224519</v>
       </c>
       <c r="K5" t="n">
-        <v>93973.55004224519</v>
+        <v>93973.55004224522</v>
       </c>
       <c r="L5" t="n">
         <v>94260.15733691733</v>
       </c>
       <c r="M5" t="n">
+        <v>94260.15733691733</v>
+      </c>
+      <c r="N5" t="n">
         <v>94260.15733691736</v>
       </c>
-      <c r="N5" t="n">
-        <v>94260.15733691731</v>
-      </c>
       <c r="O5" t="n">
-        <v>93973.55004224519</v>
+        <v>93973.55004224522</v>
       </c>
       <c r="P5" t="n">
-        <v>93973.55004224519</v>
+        <v>93973.55004224525</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82984.68070014718</v>
+        <v>82997.40117465594</v>
       </c>
       <c r="C6" t="n">
-        <v>402709.8769390382</v>
+        <v>402722.597413547</v>
       </c>
       <c r="D6" t="n">
-        <v>402709.8769390382</v>
+        <v>402722.597413547</v>
       </c>
       <c r="E6" t="n">
-        <v>-434043.6761950236</v>
+        <v>-433958.1941349702</v>
       </c>
       <c r="F6" t="n">
-        <v>654605.6812406121</v>
+        <v>654691.163300665</v>
       </c>
       <c r="G6" t="n">
-        <v>653347.5771952466</v>
+        <v>653347.5771952453</v>
       </c>
       <c r="H6" t="n">
-        <v>656074.9301521952</v>
+        <v>656074.9301521939</v>
       </c>
       <c r="I6" t="n">
+        <v>656074.9301521948</v>
+      </c>
+      <c r="J6" t="n">
+        <v>629504.8940594346</v>
+      </c>
+      <c r="K6" t="n">
+        <v>654691.163300665</v>
+      </c>
+      <c r="L6" t="n">
+        <v>650620.2242382967</v>
+      </c>
+      <c r="M6" t="n">
+        <v>396937.9479542485</v>
+      </c>
+      <c r="N6" t="n">
         <v>656074.930152195</v>
       </c>
-      <c r="J6" t="n">
-        <v>629419.4119993818</v>
-      </c>
-      <c r="K6" t="n">
-        <v>654605.6812406116</v>
-      </c>
-      <c r="L6" t="n">
-        <v>650620.2242382978</v>
-      </c>
-      <c r="M6" t="n">
-        <v>396937.9479542472</v>
-      </c>
-      <c r="N6" t="n">
-        <v>656074.9301521947</v>
-      </c>
       <c r="O6" t="n">
-        <v>633945.8410683743</v>
+        <v>634031.3231284276</v>
       </c>
       <c r="P6" t="n">
-        <v>654605.6812406117</v>
+        <v>654691.1633006651</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>32.64318260766775</v>
+      </c>
+      <c r="F2" t="n">
+        <v>32.64318260766768</v>
+      </c>
+      <c r="G2" t="n">
+        <v>36.05237380385346</v>
+      </c>
+      <c r="H2" t="n">
+        <v>36.05237380385346</v>
+      </c>
+      <c r="I2" t="n">
+        <v>36.05237380385346</v>
+      </c>
+      <c r="J2" t="n">
         <v>32.64318260766771</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
         <v>32.64318260766771</v>
-      </c>
-      <c r="G2" t="n">
-        <v>36.05237380385324</v>
-      </c>
-      <c r="H2" t="n">
-        <v>36.05237380385321</v>
-      </c>
-      <c r="I2" t="n">
-        <v>36.05237380385324</v>
-      </c>
-      <c r="J2" t="n">
-        <v>32.64318260766773</v>
-      </c>
-      <c r="K2" t="n">
-        <v>32.64318260766769</v>
       </c>
       <c r="L2" t="n">
         <v>36.05237380385343</v>
       </c>
       <c r="M2" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="N2" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="O2" t="n">
         <v>32.64318260766773</v>
       </c>
       <c r="P2" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
     </row>
     <row r="3">
@@ -26916,28 +26916,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.409191196185532</v>
+        <v>3.40919119618578</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.2339914114822</v>
+        <v>29.233991411482</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.818382392371277</v>
+        <v>6.818382392371504</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.82480021529655</v>
+        <v>25.8248002152963</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.876045741711096</v>
+        <v>6.87604574171155</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27153,22 +27153,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.409191196185532</v>
+        <v>3.40919119618578</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.2339914114822</v>
+        <v>29.233991411482</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>387.7087577173744</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>354.2158847713068</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.6571379081559</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>166.6520778990163</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27508,10 +27508,10 @@
         <v>94.81208459311941</v>
       </c>
       <c r="S3" t="n">
-        <v>158.5224288518331</v>
+        <v>151.6463831101217</v>
       </c>
       <c r="T3" t="n">
-        <v>197.3088320880702</v>
+        <v>191.2524109987708</v>
       </c>
       <c r="U3" t="n">
         <v>225.8947678817351</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>370.2478078249014</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>330.8877502489577</v>
+        <v>325.9128341950639</v>
       </c>
       <c r="I5" t="n">
         <v>159.4227692713298</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159.6571379081559</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27706,10 +27706,10 @@
         <v>151.5886593661015</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>138.1931666516724</v>
       </c>
       <c r="G6" t="n">
-        <v>129.758935593056</v>
+        <v>136.6349813347674</v>
       </c>
       <c r="H6" t="n">
         <v>105.3924797881105</v>
@@ -27739,7 +27739,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>49.53779710789991</v>
+        <v>42.66175136618847</v>
       </c>
       <c r="R6" t="n">
         <v>101.6881303348308</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>330.8877502489577</v>
+        <v>325.9128341950639</v>
       </c>
       <c r="I8" t="n">
         <v>159.4227692713298</v>
@@ -27900,7 +27900,7 @@
         <v>79.30166562967011</v>
       </c>
       <c r="R8" t="n">
-        <v>132.401164090331</v>
+        <v>137.3760801442249</v>
       </c>
       <c r="S8" t="n">
         <v>178.8437391585118</v>
@@ -27937,19 +27937,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>140.5690198229273</v>
       </c>
       <c r="E9" t="n">
-        <v>150.7690347136895</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>139.0127913040845</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>136.6349813347674</v>
       </c>
       <c r="H9" t="n">
-        <v>105.3924797881105</v>
+        <v>99.33605869881112</v>
       </c>
       <c r="I9" t="n">
         <v>75.12761573123095</v>
@@ -27958,7 +27958,7 @@
         <v>59.8965289451948</v>
       </c>
       <c r="K9" t="n">
-        <v>16.55239500547935</v>
+        <v>23.42844074719079</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -27976,7 +27976,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>49.53779710789991</v>
+        <v>42.66175136618847</v>
       </c>
       <c r="R9" t="n">
         <v>101.6881303348308</v>
@@ -27985,7 +27985,7 @@
         <v>158.5224288518331</v>
       </c>
       <c r="T9" t="n">
-        <v>197.3088320880702</v>
+        <v>190.4327863463587</v>
       </c>
       <c r="U9" t="n">
         <v>225.8947678817351</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>198.8066500355929</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="C11" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="D11" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="E11" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="F11" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="G11" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="H11" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="I11" t="n">
         <v>14.34325439323285</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="T11" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="U11" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="V11" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="W11" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="X11" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="Y11" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="C13" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="D13" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="E13" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="F13" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="G13" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="H13" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="I13" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="J13" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="K13" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="L13" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="M13" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="N13" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="O13" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="P13" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="R13" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="S13" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="T13" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="U13" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="V13" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="W13" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="X13" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766775</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="C14" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="D14" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="E14" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="F14" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="G14" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="H14" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="I14" t="n">
         <v>14.34325439323285</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="T14" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="U14" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="V14" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="W14" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="X14" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="Y14" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="C16" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="D16" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="E16" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="F16" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="G16" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="H16" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="I16" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="J16" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="K16" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="L16" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="M16" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="N16" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="O16" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="P16" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="Q16" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="R16" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="S16" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="T16" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="U16" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="V16" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="W16" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="X16" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.64318260766771</v>
+        <v>32.64318260766768</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="C17" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="D17" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="E17" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="F17" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="G17" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="H17" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="I17" t="n">
-        <v>14.34325439323283</v>
+        <v>14.34325439323285</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="T17" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="U17" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="V17" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="W17" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="X17" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="Y17" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="C19" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="D19" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="E19" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="F19" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="G19" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="H19" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="I19" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="J19" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="K19" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="L19" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="M19" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="N19" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="O19" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="P19" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="Q19" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="R19" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="S19" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="T19" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="U19" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="V19" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="W19" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="X19" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="Y19" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="C20" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="D20" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="E20" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="F20" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="G20" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="H20" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="I20" t="n">
-        <v>14.34325439323283</v>
+        <v>14.34325439323285</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="T20" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="U20" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="V20" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="W20" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="X20" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="Y20" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="C22" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="D22" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="E22" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="F22" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="G22" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="H22" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="I22" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="J22" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="K22" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="L22" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="M22" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="N22" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="O22" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="P22" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="Q22" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="R22" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="S22" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="T22" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="U22" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="V22" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="W22" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="X22" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="Y22" t="n">
-        <v>36.05237380385321</v>
+        <v>36.05237380385346</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="C23" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="D23" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="E23" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="F23" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="G23" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="H23" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="I23" t="n">
         <v>14.34325439323285</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="T23" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="U23" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="V23" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="W23" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="X23" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="Y23" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="C25" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="D25" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="E25" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="F25" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="G25" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="H25" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="I25" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="J25" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="K25" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="L25" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="M25" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="N25" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="O25" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="P25" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="Q25" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="R25" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="S25" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="T25" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="U25" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="V25" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="W25" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="X25" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
       <c r="Y25" t="n">
-        <v>36.05237380385324</v>
+        <v>36.05237380385346</v>
       </c>
     </row>
     <row r="26">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="C26" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="D26" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="E26" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="F26" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="G26" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="H26" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="I26" t="n">
         <v>14.34325439323285</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="T26" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="U26" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="V26" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="W26" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="X26" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="Y26" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="C28" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="D28" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="E28" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="F28" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="G28" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="H28" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="I28" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="J28" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="K28" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="L28" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="M28" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="N28" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="O28" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="P28" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="Q28" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="R28" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="S28" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="T28" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="U28" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="V28" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="W28" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="X28" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.64318260766773</v>
+        <v>32.64318260766771</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="C29" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="D29" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="E29" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="F29" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="G29" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="H29" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="I29" t="n">
         <v>14.34325439323285</v>
@@ -29544,7 +29544,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="T29" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="U29" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="V29" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="W29" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="X29" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="Y29" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="C31" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="D31" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="E31" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="F31" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="G31" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="H31" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="I31" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="J31" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="K31" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="L31" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="M31" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="N31" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="O31" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="P31" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="Q31" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="R31" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="S31" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="T31" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="U31" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="V31" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="W31" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="X31" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.64318260766769</v>
+        <v>32.64318260766771</v>
       </c>
     </row>
     <row r="32">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="C35" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="D35" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="E35" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="F35" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="G35" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="H35" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="I35" t="n">
         <v>14.34325439323285</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="T35" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="U35" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="V35" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="W35" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="X35" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="Y35" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="C37" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="D37" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="E37" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="F37" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="G37" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="H37" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="I37" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="J37" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="K37" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="L37" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="M37" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="N37" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="O37" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="P37" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="Q37" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="R37" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="S37" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="T37" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="U37" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="V37" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="W37" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="X37" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="Y37" t="n">
-        <v>36.05237380385342</v>
+        <v>36.05237380385343</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="C38" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="D38" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="E38" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="F38" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="G38" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="H38" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="I38" t="n">
-        <v>14.34325439323285</v>
+        <v>14.34325439323036</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="T38" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="U38" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="V38" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="W38" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="X38" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="Y38" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="C40" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="D40" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="E40" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="F40" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="G40" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="H40" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="I40" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="J40" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="K40" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="L40" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="M40" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="N40" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="O40" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="P40" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="Q40" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="R40" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="S40" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="T40" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="U40" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="V40" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="W40" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="X40" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
       <c r="Y40" t="n">
-        <v>36.05237380385338</v>
+        <v>36.05237380385343</v>
       </c>
     </row>
     <row r="41">
@@ -30480,7 +30480,7 @@
         <v>32.64318260766773</v>
       </c>
       <c r="I41" t="n">
-        <v>14.343254393232</v>
+        <v>14.34325439323285</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="C44" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="D44" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="E44" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="F44" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="G44" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="H44" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="I44" t="n">
-        <v>14.34325439323285</v>
+        <v>14.34325439323558</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="T44" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="U44" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="V44" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="W44" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="X44" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="Y44" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="C46" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="D46" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="E46" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="F46" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="G46" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="H46" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="I46" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="J46" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="K46" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="L46" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="M46" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="N46" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="O46" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="P46" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="Q46" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="R46" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="S46" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="T46" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="U46" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="V46" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="W46" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="X46" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.64318260766778</v>
+        <v>32.6431826076678</v>
       </c>
     </row>
   </sheetData>
@@ -31135,7 +31135,7 @@
         <v>114.4129982271682</v>
       </c>
       <c r="L3" t="n">
-        <v>143.8277458061175</v>
+        <v>145.4304255215856</v>
       </c>
       <c r="M3" t="n">
         <v>149.0100796637298</v>
@@ -31144,10 +31144,10 @@
         <v>138.2177578250447</v>
       </c>
       <c r="O3" t="n">
-        <v>149.4722901861559</v>
+        <v>149.1944701561877</v>
       </c>
       <c r="P3" t="n">
-        <v>135.2992670998302</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>90.44397697812161</v>
@@ -31372,7 +31372,7 @@
         <v>114.4129982271682</v>
       </c>
       <c r="L6" t="n">
-        <v>143.8277458061175</v>
+        <v>145.4304255215856</v>
       </c>
       <c r="M6" t="n">
         <v>149.0100796637298</v>
@@ -31381,7 +31381,7 @@
         <v>138.2177578250447</v>
       </c>
       <c r="O6" t="n">
-        <v>149.4722901861559</v>
+        <v>147.8696104706878</v>
       </c>
       <c r="P6" t="n">
         <v>135.2992670998302</v>
@@ -31612,13 +31612,13 @@
         <v>145.4304255215856</v>
       </c>
       <c r="M9" t="n">
-        <v>147.4073999482616</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
         <v>138.2177578250447</v>
       </c>
       <c r="O9" t="n">
-        <v>149.4722901861559</v>
+        <v>147.8696104706878</v>
       </c>
       <c r="P9" t="n">
         <v>135.2992670998302</v>
@@ -31849,10 +31849,10 @@
         <v>591.0219447092926</v>
       </c>
       <c r="M12" t="n">
-        <v>287.6786004234755</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>707.94890009729</v>
+        <v>646.0133140345464</v>
       </c>
       <c r="O12" t="n">
         <v>647.6349345448943</v>
@@ -31861,7 +31861,7 @@
         <v>519.7841314766828</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>347.4619266502223</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32086,19 +32086,19 @@
         <v>591.0219447092926</v>
       </c>
       <c r="M15" t="n">
-        <v>673.4883244858279</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>707.94890009729</v>
+        <v>646.0133140345464</v>
       </c>
       <c r="O15" t="n">
         <v>647.6349345448943</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>519.7841314766828</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>347.4619266502223</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.087416773936137</v>
+        <v>5.087416773936136</v>
       </c>
       <c r="H17" t="n">
-        <v>52.10150703607347</v>
+        <v>52.10150703607346</v>
       </c>
       <c r="I17" t="n">
         <v>196.1326351771731</v>
       </c>
       <c r="J17" t="n">
-        <v>431.7881394168626</v>
+        <v>431.7881394168625</v>
       </c>
       <c r="K17" t="n">
-        <v>647.1384914575793</v>
+        <v>647.1384914575792</v>
       </c>
       <c r="L17" t="n">
-        <v>802.8325225529276</v>
+        <v>802.8325225529273</v>
       </c>
       <c r="M17" t="n">
-        <v>893.3058706064143</v>
+        <v>893.3058706064141</v>
       </c>
       <c r="N17" t="n">
-        <v>907.7604935153604</v>
+        <v>907.7604935153603</v>
       </c>
       <c r="O17" t="n">
-        <v>857.1724929695329</v>
+        <v>857.1724929695328</v>
       </c>
       <c r="P17" t="n">
-        <v>731.5768913629844</v>
+        <v>731.5768913629843</v>
       </c>
       <c r="Q17" t="n">
-        <v>549.3837781463964</v>
+        <v>549.3837781463963</v>
       </c>
       <c r="R17" t="n">
-        <v>319.5724439257661</v>
+        <v>319.572443925766</v>
       </c>
       <c r="S17" t="n">
         <v>115.9295097360698</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.722007946545172</v>
+        <v>2.722007946545171</v>
       </c>
       <c r="H18" t="n">
-        <v>26.28886622058101</v>
+        <v>26.288866220581</v>
       </c>
       <c r="I18" t="n">
-        <v>93.71825605429649</v>
+        <v>93.71825605429648</v>
       </c>
       <c r="J18" t="n">
-        <v>257.1700577917963</v>
+        <v>257.1700577917962</v>
       </c>
       <c r="K18" t="n">
-        <v>439.5445902103228</v>
+        <v>439.5445902103227</v>
       </c>
       <c r="L18" t="n">
-        <v>591.0219447092927</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>689.694732771555</v>
+        <v>689.6947327715549</v>
       </c>
       <c r="N18" t="n">
-        <v>707.9489000972901</v>
+        <v>707.94890009729</v>
       </c>
       <c r="O18" t="n">
-        <v>631.4285262591671</v>
+        <v>490.6062145620328</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>519.7841314766828</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>347.4619266502223</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>50.56010374394208</v>
+        <v>50.56010374394207</v>
       </c>
       <c r="T18" t="n">
         <v>10.97160220559216</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1790794701674456</v>
+        <v>0.1790794701674455</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.282040024210289</v>
+        <v>2.282040024210288</v>
       </c>
       <c r="H19" t="n">
         <v>20.28941039706967</v>
       </c>
       <c r="I19" t="n">
-        <v>68.62716727352398</v>
+        <v>68.62716727352397</v>
       </c>
       <c r="J19" t="n">
         <v>161.3402297116674</v>
@@ -32399,19 +32399,19 @@
         <v>265.1315591764317</v>
       </c>
       <c r="L19" t="n">
-        <v>339.2771141448643</v>
+        <v>339.2771141448642</v>
       </c>
       <c r="M19" t="n">
         <v>357.7201467041637</v>
       </c>
       <c r="N19" t="n">
-        <v>349.2143611593802</v>
+        <v>349.2143611593801</v>
       </c>
       <c r="O19" t="n">
-        <v>322.5559845129235</v>
+        <v>322.5559845129234</v>
       </c>
       <c r="P19" t="n">
-        <v>276.0023680190334</v>
+        <v>276.0023680190333</v>
       </c>
       <c r="Q19" t="n">
         <v>191.0897333000088</v>
@@ -32420,10 +32420,10 @@
         <v>102.6088178158553</v>
       </c>
       <c r="S19" t="n">
-        <v>39.76973387646475</v>
+        <v>39.76973387646474</v>
       </c>
       <c r="T19" t="n">
-        <v>9.750534648898505</v>
+        <v>9.750534648898503</v>
       </c>
       <c r="U19" t="n">
         <v>0.1244749104114704</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.087416773936137</v>
+        <v>5.087416773936136</v>
       </c>
       <c r="H20" t="n">
-        <v>52.10150703607347</v>
+        <v>52.10150703607346</v>
       </c>
       <c r="I20" t="n">
         <v>196.1326351771731</v>
       </c>
       <c r="J20" t="n">
-        <v>431.7881394168626</v>
+        <v>431.7881394168625</v>
       </c>
       <c r="K20" t="n">
-        <v>647.1384914575793</v>
+        <v>647.1384914575792</v>
       </c>
       <c r="L20" t="n">
-        <v>802.8325225529276</v>
+        <v>802.8325225529273</v>
       </c>
       <c r="M20" t="n">
-        <v>893.3058706064143</v>
+        <v>893.3058706064141</v>
       </c>
       <c r="N20" t="n">
-        <v>907.7604935153604</v>
+        <v>907.7604935153603</v>
       </c>
       <c r="O20" t="n">
-        <v>857.1724929695329</v>
+        <v>857.1724929695328</v>
       </c>
       <c r="P20" t="n">
-        <v>731.5768913629844</v>
+        <v>731.5768913629843</v>
       </c>
       <c r="Q20" t="n">
-        <v>549.3837781463964</v>
+        <v>549.3837781463963</v>
       </c>
       <c r="R20" t="n">
-        <v>319.5724439257661</v>
+        <v>319.572443925766</v>
       </c>
       <c r="S20" t="n">
         <v>115.9295097360698</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.722007946545172</v>
+        <v>2.722007946545171</v>
       </c>
       <c r="H21" t="n">
-        <v>26.28886622058101</v>
+        <v>26.288866220581</v>
       </c>
       <c r="I21" t="n">
-        <v>93.71825605429649</v>
+        <v>93.71825605429648</v>
       </c>
       <c r="J21" t="n">
-        <v>257.1700577917963</v>
+        <v>257.1700577917962</v>
       </c>
       <c r="K21" t="n">
-        <v>439.5445902103228</v>
+        <v>215.8580293603951</v>
       </c>
       <c r="L21" t="n">
-        <v>591.0219447092927</v>
+        <v>591.0219447092926</v>
       </c>
       <c r="M21" t="n">
-        <v>689.694732771555</v>
+        <v>689.6947327715549</v>
       </c>
       <c r="N21" t="n">
-        <v>707.9489000972901</v>
+        <v>707.94890009729</v>
       </c>
       <c r="O21" t="n">
-        <v>631.4285262591671</v>
+        <v>647.6349345448943</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>347.4619266502223</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>50.56010374394208</v>
+        <v>50.56010374394207</v>
       </c>
       <c r="T21" t="n">
         <v>10.97160220559216</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1790794701674456</v>
+        <v>0.1790794701674455</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.282040024210289</v>
+        <v>2.282040024210288</v>
       </c>
       <c r="H22" t="n">
         <v>20.28941039706967</v>
       </c>
       <c r="I22" t="n">
-        <v>68.62716727352398</v>
+        <v>68.62716727352397</v>
       </c>
       <c r="J22" t="n">
         <v>161.3402297116674</v>
@@ -32636,19 +32636,19 @@
         <v>265.1315591764317</v>
       </c>
       <c r="L22" t="n">
-        <v>339.2771141448643</v>
+        <v>339.2771141448642</v>
       </c>
       <c r="M22" t="n">
         <v>357.7201467041637</v>
       </c>
       <c r="N22" t="n">
-        <v>349.2143611593802</v>
+        <v>349.2143611593801</v>
       </c>
       <c r="O22" t="n">
-        <v>322.5559845129235</v>
+        <v>322.5559845129234</v>
       </c>
       <c r="P22" t="n">
-        <v>276.0023680190334</v>
+        <v>276.0023680190333</v>
       </c>
       <c r="Q22" t="n">
         <v>191.0897333000088</v>
@@ -32657,10 +32657,10 @@
         <v>102.6088178158553</v>
       </c>
       <c r="S22" t="n">
-        <v>39.76973387646475</v>
+        <v>39.76973387646474</v>
       </c>
       <c r="T22" t="n">
-        <v>9.750534648898505</v>
+        <v>9.750534648898503</v>
       </c>
       <c r="U22" t="n">
         <v>0.1244749104114704</v>
@@ -32791,7 +32791,7 @@
         <v>257.1700577917962</v>
       </c>
       <c r="K24" t="n">
-        <v>439.5445902103227</v>
+        <v>423.3381819245959</v>
       </c>
       <c r="L24" t="n">
         <v>591.0219447092926</v>
@@ -32803,7 +32803,7 @@
         <v>707.94890009729</v>
       </c>
       <c r="O24" t="n">
-        <v>608.1047649104408</v>
+        <v>647.6349345448943</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>169.0032653126906</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>50.56010374394207</v>
@@ -33274,10 +33274,10 @@
         <v>689.6947327715549</v>
       </c>
       <c r="N30" t="n">
-        <v>707.94890009729</v>
+        <v>691.7424918115632</v>
       </c>
       <c r="O30" t="n">
-        <v>631.4285262591676</v>
+        <v>647.6349345448943</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33511,10 +33511,10 @@
         <v>689.6947327715549</v>
       </c>
       <c r="N33" t="n">
-        <v>707.94890009729</v>
+        <v>691.7424918115632</v>
       </c>
       <c r="O33" t="n">
-        <v>631.4285262591676</v>
+        <v>647.6349345448943</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33739,7 +33739,7 @@
         <v>257.1700577917962</v>
       </c>
       <c r="K36" t="n">
-        <v>423.3381819245959</v>
+        <v>439.5445902103227</v>
       </c>
       <c r="L36" t="n">
         <v>591.0219447092926</v>
@@ -33748,7 +33748,7 @@
         <v>689.6947327715549</v>
       </c>
       <c r="N36" t="n">
-        <v>707.94890009729</v>
+        <v>691.7424918115632</v>
       </c>
       <c r="O36" t="n">
         <v>647.6349345448943</v>
@@ -33918,7 +33918,7 @@
         <v>549.3837781463963</v>
       </c>
       <c r="R38" t="n">
-        <v>319.572443925766</v>
+        <v>319.5724439257672</v>
       </c>
       <c r="S38" t="n">
         <v>115.9295097360698</v>
@@ -33985,10 +33985,10 @@
         <v>689.6947327715549</v>
       </c>
       <c r="N39" t="n">
-        <v>707.94890009729</v>
+        <v>691.7424918115632</v>
       </c>
       <c r="O39" t="n">
-        <v>631.4285262591676</v>
+        <v>647.6349345448943</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34222,10 +34222,10 @@
         <v>689.6947327715549</v>
       </c>
       <c r="N42" t="n">
-        <v>707.94890009729</v>
+        <v>691.7424918115632</v>
       </c>
       <c r="O42" t="n">
-        <v>608.1047649104408</v>
+        <v>647.6349345448943</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>169.0032653126906</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>50.56010374394207</v>
@@ -34392,7 +34392,7 @@
         <v>549.3837781463963</v>
       </c>
       <c r="R44" t="n">
-        <v>319.5724439257654</v>
+        <v>319.572443925766</v>
       </c>
       <c r="S44" t="n">
         <v>115.9295097360698</v>
@@ -34459,10 +34459,10 @@
         <v>689.6947327715549</v>
       </c>
       <c r="N45" t="n">
-        <v>707.94890009729</v>
+        <v>691.7424918115632</v>
       </c>
       <c r="O45" t="n">
-        <v>631.4285262591676</v>
+        <v>647.6349345448943</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34674,7 +34674,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>4.974916053893833</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -34737,7 +34737,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.974916053893835</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5.273366026243322</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M3" t="n">
         <v>6.876045741711437</v>
@@ -34792,10 +34792,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O3" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P3" t="n">
-        <v>1.324859685499973</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34914,7 +34914,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>4.974916053893835</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -34929,7 +34929,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>4.974916053893833</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>5.273366026243322</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M6" t="n">
         <v>6.876045741711437</v>
@@ -35029,7 +35029,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O6" t="n">
-        <v>6.876045741711437</v>
+        <v>5.273366026243323</v>
       </c>
       <c r="P6" t="n">
         <v>1.324859685499973</v>
@@ -35166,7 +35166,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4.974916053893833</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -35196,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>4.974916053893835</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35260,13 +35260,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M9" t="n">
-        <v>5.273366026243322</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N9" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O9" t="n">
-        <v>6.876045741711437</v>
+        <v>5.273366026243323</v>
       </c>
       <c r="P9" t="n">
         <v>1.324859685499973</v>
@@ -35497,10 +35497,10 @@
         <v>452.4675649294184</v>
       </c>
       <c r="M12" t="n">
-        <v>145.5445665014572</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>576.6071880139567</v>
+        <v>514.6716019512131</v>
       </c>
       <c r="O12" t="n">
         <v>505.0386901004499</v>
@@ -35509,7 +35509,7 @@
         <v>385.8097240623525</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>207.4801525642008</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>100.6242322026621</v>
+        <v>100.6242322026623</v>
       </c>
       <c r="K13" t="n">
-        <v>275.5052499582165</v>
+        <v>275.5052499582166</v>
       </c>
       <c r="L13" t="n">
-        <v>399.5103220128481</v>
+        <v>399.5103220128482</v>
       </c>
       <c r="M13" t="n">
         <v>429.947206273672</v>
@@ -35582,10 +35582,10 @@
         <v>425.9897161462765</v>
       </c>
       <c r="O13" t="n">
-        <v>379.7842950346308</v>
+        <v>379.7842950346309</v>
       </c>
       <c r="P13" t="n">
-        <v>305.9241098915945</v>
+        <v>305.9241098915946</v>
       </c>
       <c r="Q13" t="n">
         <v>137.5708726559822</v>
@@ -35734,19 +35734,19 @@
         <v>452.4675649294184</v>
       </c>
       <c r="M15" t="n">
-        <v>531.3542905638096</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>576.6071880139567</v>
+        <v>514.6716019512131</v>
       </c>
       <c r="O15" t="n">
         <v>505.0386901004499</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>385.8097240623525</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>207.4801525642008</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35813,7 +35813,7 @@
         <v>399.5103220128481</v>
       </c>
       <c r="M16" t="n">
-        <v>429.947206273672</v>
+        <v>429.9472062736719</v>
       </c>
       <c r="N16" t="n">
         <v>425.9897161462764</v>
@@ -35825,7 +35825,7 @@
         <v>305.9241098915945</v>
       </c>
       <c r="Q16" t="n">
-        <v>137.5708726559822</v>
+        <v>137.5708726559821</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>250.7422348901763</v>
+        <v>250.7422348901762</v>
       </c>
       <c r="K17" t="n">
-        <v>427.0486404125988</v>
+        <v>427.0486404125987</v>
       </c>
       <c r="L17" t="n">
-        <v>567.0661075829403</v>
+        <v>567.06610758294</v>
       </c>
       <c r="M17" t="n">
         <v>662.9596373791414</v>
@@ -35898,16 +35898,16 @@
         <v>678.3474299187694</v>
       </c>
       <c r="O17" t="n">
-        <v>627.0742815478461</v>
+        <v>627.074281547846</v>
       </c>
       <c r="P17" t="n">
-        <v>500.3438956077148</v>
+        <v>500.3438956077147</v>
       </c>
       <c r="Q17" t="n">
-        <v>327.0780882719469</v>
+        <v>327.0780882719467</v>
       </c>
       <c r="R17" t="n">
-        <v>103.986906111634</v>
+        <v>103.9869061116339</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>130.3324311251296</v>
+        <v>130.3324311251295</v>
       </c>
       <c r="K18" t="n">
-        <v>301.7031512359638</v>
+        <v>301.7031512359637</v>
       </c>
       <c r="L18" t="n">
-        <v>452.4675649294185</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>547.5606988495367</v>
+        <v>547.5606988495365</v>
       </c>
       <c r="N18" t="n">
-        <v>576.6071880139568</v>
+        <v>576.6071880139567</v>
       </c>
       <c r="O18" t="n">
-        <v>488.8322818147227</v>
+        <v>348.0099701175884</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>385.8097240623525</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>207.4801525642008</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>104.0334233988479</v>
+        <v>104.0334233988481</v>
       </c>
       <c r="K19" t="n">
-        <v>278.9144411544021</v>
+        <v>278.9144411544023</v>
       </c>
       <c r="L19" t="n">
-        <v>319.9913982513556</v>
+        <v>402.9195132090338</v>
       </c>
       <c r="M19" t="n">
-        <v>433.3563974698575</v>
+        <v>350.4282825121741</v>
       </c>
       <c r="N19" t="n">
-        <v>429.3989073424621</v>
+        <v>429.3989073424622</v>
       </c>
       <c r="O19" t="n">
-        <v>383.1934862308164</v>
+        <v>383.1934862308166</v>
       </c>
       <c r="P19" t="n">
-        <v>309.3333010877801</v>
+        <v>309.3333010877803</v>
       </c>
       <c r="Q19" t="n">
-        <v>140.9800638521677</v>
+        <v>140.9800638521679</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>250.7422348901763</v>
+        <v>250.7422348901762</v>
       </c>
       <c r="K20" t="n">
-        <v>427.0486404125988</v>
+        <v>427.0486404125987</v>
       </c>
       <c r="L20" t="n">
-        <v>567.0661075829403</v>
+        <v>567.06610758294</v>
       </c>
       <c r="M20" t="n">
-        <v>662.9596373791416</v>
+        <v>662.9596373791414</v>
       </c>
       <c r="N20" t="n">
         <v>678.3474299187694</v>
       </c>
       <c r="O20" t="n">
-        <v>627.0742815478461</v>
+        <v>627.074281547846</v>
       </c>
       <c r="P20" t="n">
-        <v>500.3438956077148</v>
+        <v>500.3438956077147</v>
       </c>
       <c r="Q20" t="n">
-        <v>327.0780882719469</v>
+        <v>327.0780882719467</v>
       </c>
       <c r="R20" t="n">
-        <v>103.986906111634</v>
+        <v>103.9869061116339</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>130.3324311251296</v>
+        <v>130.3324311251295</v>
       </c>
       <c r="K21" t="n">
-        <v>301.7031512359638</v>
+        <v>78.01659038603609</v>
       </c>
       <c r="L21" t="n">
-        <v>452.4675649294185</v>
+        <v>452.4675649294184</v>
       </c>
       <c r="M21" t="n">
-        <v>547.5606988495367</v>
+        <v>547.5606988495365</v>
       </c>
       <c r="N21" t="n">
-        <v>576.6071880139568</v>
+        <v>576.6071880139567</v>
       </c>
       <c r="O21" t="n">
-        <v>488.8322818147227</v>
+        <v>505.0386901004499</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>207.4801525642008</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>104.0334233988478</v>
+        <v>104.0334233988481</v>
       </c>
       <c r="K22" t="n">
-        <v>278.914441154402</v>
+        <v>278.9144411544023</v>
       </c>
       <c r="L22" t="n">
-        <v>402.9195132090337</v>
+        <v>402.9195132090338</v>
       </c>
       <c r="M22" t="n">
-        <v>433.3563974698575</v>
+        <v>433.3563974698577</v>
       </c>
       <c r="N22" t="n">
-        <v>429.398907342462</v>
+        <v>429.3989073424622</v>
       </c>
       <c r="O22" t="n">
-        <v>300.2653712731384</v>
+        <v>383.1934862308166</v>
       </c>
       <c r="P22" t="n">
-        <v>309.3333010877801</v>
+        <v>226.4051861300966</v>
       </c>
       <c r="Q22" t="n">
-        <v>140.9800638521677</v>
+        <v>140.9800638521679</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>130.3324311251295</v>
       </c>
       <c r="K24" t="n">
-        <v>301.7031512359637</v>
+        <v>285.4967429502369</v>
       </c>
       <c r="L24" t="n">
         <v>452.4675649294184</v>
@@ -36451,7 +36451,7 @@
         <v>576.6071880139567</v>
       </c>
       <c r="O24" t="n">
-        <v>465.5085204659964</v>
+        <v>505.0386901004499</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>23.32376134872666</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>104.0334233988478</v>
+        <v>104.0334233988481</v>
       </c>
       <c r="K25" t="n">
-        <v>278.9144411544021</v>
+        <v>278.9144411544023</v>
       </c>
       <c r="L25" t="n">
-        <v>319.9913982513557</v>
+        <v>402.9195132090338</v>
       </c>
       <c r="M25" t="n">
-        <v>433.3563974698575</v>
+        <v>433.3563974698577</v>
       </c>
       <c r="N25" t="n">
-        <v>429.3989073424619</v>
+        <v>429.3989073424622</v>
       </c>
       <c r="O25" t="n">
-        <v>383.1934862308163</v>
+        <v>383.1934862308166</v>
       </c>
       <c r="P25" t="n">
-        <v>309.3333010877801</v>
+        <v>291.7481445078483</v>
       </c>
       <c r="Q25" t="n">
-        <v>140.9800638521677</v>
+        <v>75.63710547441643</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>500.3438956077147</v>
       </c>
       <c r="Q26" t="n">
-        <v>327.0780882719459</v>
+        <v>327.0780882719467</v>
       </c>
       <c r="R26" t="n">
         <v>103.9869061116339</v>
@@ -36755,7 +36755,7 @@
         <v>100.6242322026623</v>
       </c>
       <c r="K28" t="n">
-        <v>275.5052499582166</v>
+        <v>275.5052499582165</v>
       </c>
       <c r="L28" t="n">
         <v>399.5103220128481</v>
@@ -36840,7 +36840,7 @@
         <v>567.06610758294</v>
       </c>
       <c r="M29" t="n">
-        <v>662.9596373791405</v>
+        <v>662.9596373791414</v>
       </c>
       <c r="N29" t="n">
         <v>678.3474299187694</v>
@@ -36922,10 +36922,10 @@
         <v>547.5606988495365</v>
       </c>
       <c r="N30" t="n">
-        <v>576.6071880139567</v>
+        <v>560.40077972823</v>
       </c>
       <c r="O30" t="n">
-        <v>488.8322818147232</v>
+        <v>505.0386901004499</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37010,7 +37010,7 @@
         <v>305.9241098915945</v>
       </c>
       <c r="Q31" t="n">
-        <v>137.5708726559821</v>
+        <v>137.5708726559822</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37159,10 +37159,10 @@
         <v>547.5606988495365</v>
       </c>
       <c r="N33" t="n">
-        <v>576.6071880139567</v>
+        <v>560.40077972823</v>
       </c>
       <c r="O33" t="n">
-        <v>488.8322818147232</v>
+        <v>505.0386901004499</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37232,7 +37232,7 @@
         <v>278.9144411544023</v>
       </c>
       <c r="L34" t="n">
-        <v>319.9913982513507</v>
+        <v>402.9195132090338</v>
       </c>
       <c r="M34" t="n">
         <v>433.3563974698577</v>
@@ -37241,7 +37241,7 @@
         <v>429.3989073424622</v>
       </c>
       <c r="O34" t="n">
-        <v>383.1934862308165</v>
+        <v>300.2653712731334</v>
       </c>
       <c r="P34" t="n">
         <v>309.3333010877802</v>
@@ -37387,7 +37387,7 @@
         <v>130.3324311251295</v>
       </c>
       <c r="K36" t="n">
-        <v>285.4967429502369</v>
+        <v>301.7031512359637</v>
       </c>
       <c r="L36" t="n">
         <v>452.4675649294184</v>
@@ -37396,7 +37396,7 @@
         <v>547.5606988495365</v>
       </c>
       <c r="N36" t="n">
-        <v>576.6071880139567</v>
+        <v>560.40077972823</v>
       </c>
       <c r="O36" t="n">
         <v>505.0386901004499</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>104.033423398848</v>
+        <v>70.39718207612469</v>
       </c>
       <c r="K37" t="n">
         <v>278.9144411544023</v>
@@ -37481,10 +37481,10 @@
         <v>383.1934862308165</v>
       </c>
       <c r="P37" t="n">
-        <v>226.4051861300975</v>
+        <v>309.3333010877802</v>
       </c>
       <c r="Q37" t="n">
-        <v>140.9800638521679</v>
+        <v>91.68819021720817</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-2.497665374187019e-12</v>
       </c>
       <c r="J38" t="n">
         <v>250.7422348901762</v>
@@ -37566,7 +37566,7 @@
         <v>327.0780882719467</v>
       </c>
       <c r="R38" t="n">
-        <v>103.9869061116339</v>
+        <v>103.9869061116351</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37633,10 +37633,10 @@
         <v>547.5606988495365</v>
       </c>
       <c r="N39" t="n">
-        <v>576.6071880139567</v>
+        <v>560.40077972823</v>
       </c>
       <c r="O39" t="n">
-        <v>488.8322818147232</v>
+        <v>505.0386901004499</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>104.033423398848</v>
+        <v>70.39718207612469</v>
       </c>
       <c r="K40" t="n">
-        <v>278.9144411544022</v>
+        <v>278.9144411544023</v>
       </c>
       <c r="L40" t="n">
-        <v>402.9195132090338</v>
+        <v>353.6276395740741</v>
       </c>
       <c r="M40" t="n">
-        <v>433.3563974698576</v>
+        <v>433.3563974698577</v>
       </c>
       <c r="N40" t="n">
-        <v>429.3989073424621</v>
+        <v>429.3989073424622</v>
       </c>
       <c r="O40" t="n">
         <v>383.1934862308165</v>
       </c>
       <c r="P40" t="n">
-        <v>226.4051861300985</v>
+        <v>309.3333010877802</v>
       </c>
       <c r="Q40" t="n">
-        <v>140.9800638521678</v>
+        <v>140.9800638521679</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37870,10 +37870,10 @@
         <v>547.5606988495365</v>
       </c>
       <c r="N42" t="n">
-        <v>576.6071880139567</v>
+        <v>560.40077972823</v>
       </c>
       <c r="O42" t="n">
-        <v>465.5085204659964</v>
+        <v>505.0386901004499</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>23.32376134872666</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2.727335753422607e-12</v>
       </c>
       <c r="J44" t="n">
         <v>250.7422348901762</v>
@@ -38040,7 +38040,7 @@
         <v>327.0780882719467</v>
       </c>
       <c r="R44" t="n">
-        <v>103.9869061116332</v>
+        <v>103.9869061116339</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38107,10 +38107,10 @@
         <v>547.5606988495365</v>
       </c>
       <c r="N45" t="n">
-        <v>576.6071880139567</v>
+        <v>560.40077972823</v>
       </c>
       <c r="O45" t="n">
-        <v>488.8322818147232</v>
+        <v>505.0386901004499</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
